--- a/modelos/Quadro de Atendimento Mensal - Modelo.xlsx
+++ b/modelos/Quadro de Atendimento Mensal - Modelo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neto\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neto\Desktop\Projetos\Em uso\carteirinhas\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BCFF716-D051-4CB4-9A54-221FA933BBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BDF570-D652-4E69-A5E8-8455C8390419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Educação Infantil" sheetId="3" r:id="rId1"/>
@@ -367,9 +367,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="54" x14ac:knownFonts="1">
     <font>
@@ -1269,7 +1269,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1996,6 +1996,132 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2014,9 +2140,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2029,128 +2152,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2160,18 +2203,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2202,57 +2233,86 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2262,69 +2322,6 @@
     <xf numFmtId="0" fontId="49" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2332,6 +2329,9 @@
     <xf numFmtId="0" fontId="32" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -3009,14 +3009,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1">
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AS87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="P57" sqref="P57:Q58"/>
     </sheetView>
   </sheetViews>
@@ -3040,20 +3040,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="263"/>
-      <c r="K1" s="263"/>
-      <c r="L1" s="263"/>
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="261"/>
       <c r="M1" s="117"/>
       <c r="N1" s="118"/>
       <c r="O1" s="119"/>
@@ -3072,20 +3072,20 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:45" ht="15.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="264"/>
-      <c r="L2" s="264"/>
+      <c r="B2" s="262"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
       <c r="M2" s="120"/>
       <c r="N2" s="121"/>
       <c r="O2" s="122"/>
@@ -3104,20 +3104,20 @@
       <c r="AB2" s="6"/>
     </row>
     <row r="3" spans="1:45" ht="15.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="265" t="s">
+      <c r="A3" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="264"/>
-      <c r="L3" s="264"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="262"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="262"/>
+      <c r="L3" s="262"/>
       <c r="M3" s="120"/>
       <c r="N3" s="121"/>
       <c r="O3" s="122"/>
@@ -3169,17 +3169,17 @@
       <c r="A5" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="238"/>
-      <c r="H5" s="238"/>
-      <c r="I5" s="238"/>
-      <c r="J5" s="238"/>
-      <c r="K5" s="238"/>
-      <c r="L5" s="238"/>
+      <c r="B5" s="275"/>
+      <c r="C5" s="275"/>
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="275"/>
+      <c r="J5" s="275"/>
+      <c r="K5" s="275"/>
+      <c r="L5" s="275"/>
       <c r="M5" s="102"/>
       <c r="N5" s="103"/>
       <c r="O5" s="104"/>
@@ -3215,20 +3215,20 @@
       <c r="AS5" s="6"/>
     </row>
     <row r="6" spans="1:45" s="82" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="240" t="s">
+      <c r="A6" s="277" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="241"/>
-      <c r="C6" s="242"/>
-      <c r="D6" s="242"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="242"/>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="242"/>
-      <c r="L6" s="242"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="279"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="279"/>
+      <c r="H6" s="279"/>
+      <c r="I6" s="279"/>
+      <c r="J6" s="279"/>
+      <c r="K6" s="279"/>
+      <c r="L6" s="279"/>
       <c r="M6" s="100"/>
       <c r="N6" s="99"/>
       <c r="O6" s="101"/>
@@ -3239,17 +3239,17 @@
       <c r="A7" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="239"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="239"/>
+      <c r="B7" s="276"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="276"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="276"/>
+      <c r="J7" s="276"/>
+      <c r="K7" s="276"/>
+      <c r="L7" s="276"/>
       <c r="M7" s="107"/>
       <c r="N7" s="108"/>
       <c r="O7" s="109"/>
@@ -3287,25 +3287,25 @@
       <c r="AB8" s="7"/>
     </row>
     <row r="9" spans="1:45" ht="24.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="266" t="s">
+      <c r="A9" s="264" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="267"/>
-      <c r="C9" s="267"/>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="267"/>
-      <c r="J9" s="267"/>
-      <c r="K9" s="267"/>
-      <c r="L9" s="267"/>
-      <c r="M9" s="267"/>
-      <c r="N9" s="267"/>
-      <c r="O9" s="267"/>
-      <c r="P9" s="267"/>
-      <c r="Q9" s="268"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="265"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="265"/>
+      <c r="F9" s="265"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="265"/>
+      <c r="I9" s="265"/>
+      <c r="J9" s="265"/>
+      <c r="K9" s="265"/>
+      <c r="L9" s="265"/>
+      <c r="M9" s="265"/>
+      <c r="N9" s="265"/>
+      <c r="O9" s="265"/>
+      <c r="P9" s="265"/>
+      <c r="Q9" s="266"/>
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
@@ -3338,25 +3338,25 @@
       <c r="Q10" s="142"/>
     </row>
     <row r="11" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="244" t="s">
+      <c r="A11" s="280" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="245"/>
-      <c r="C11" s="245"/>
-      <c r="D11" s="245"/>
-      <c r="E11" s="245"/>
-      <c r="F11" s="245"/>
-      <c r="G11" s="245"/>
-      <c r="H11" s="245"/>
-      <c r="I11" s="245"/>
-      <c r="J11" s="245"/>
-      <c r="K11" s="245"/>
-      <c r="L11" s="245"/>
-      <c r="M11" s="245"/>
-      <c r="N11" s="245"/>
-      <c r="O11" s="245"/>
-      <c r="P11" s="245"/>
-      <c r="Q11" s="245"/>
+      <c r="B11" s="281"/>
+      <c r="C11" s="281"/>
+      <c r="D11" s="281"/>
+      <c r="E11" s="281"/>
+      <c r="F11" s="281"/>
+      <c r="G11" s="281"/>
+      <c r="H11" s="281"/>
+      <c r="I11" s="281"/>
+      <c r="J11" s="281"/>
+      <c r="K11" s="281"/>
+      <c r="L11" s="281"/>
+      <c r="M11" s="281"/>
+      <c r="N11" s="281"/>
+      <c r="O11" s="281"/>
+      <c r="P11" s="281"/>
+      <c r="Q11" s="281"/>
       <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:45" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3379,20 +3379,20 @@
       <c r="Q12" s="142"/>
     </row>
     <row r="13" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="269" t="s">
+      <c r="A13" s="267" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="269"/>
-      <c r="C13" s="269"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="269"/>
-      <c r="G13" s="269"/>
-      <c r="H13" s="269"/>
-      <c r="I13" s="269"/>
-      <c r="J13" s="269"/>
-      <c r="K13" s="269"/>
-      <c r="L13" s="269"/>
+      <c r="B13" s="267"/>
+      <c r="C13" s="267"/>
+      <c r="D13" s="267"/>
+      <c r="E13" s="267"/>
+      <c r="F13" s="267"/>
+      <c r="G13" s="267"/>
+      <c r="H13" s="267"/>
+      <c r="I13" s="267"/>
+      <c r="J13" s="267"/>
+      <c r="K13" s="267"/>
+      <c r="L13" s="267"/>
       <c r="M13" s="148"/>
       <c r="N13" s="149"/>
       <c r="O13" s="150"/>
@@ -3421,31 +3421,31 @@
       <c r="R14" s="16"/>
     </row>
     <row r="15" spans="1:45" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="260" t="s">
+      <c r="A15" s="268" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="260"/>
-      <c r="C15" s="260"/>
-      <c r="D15" s="260"/>
+      <c r="B15" s="268"/>
+      <c r="C15" s="268"/>
+      <c r="D15" s="268"/>
       <c r="E15" s="79"/>
-      <c r="F15" s="260" t="s">
+      <c r="F15" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="260"/>
-      <c r="H15" s="260"/>
-      <c r="I15" s="260"/>
+      <c r="G15" s="268"/>
+      <c r="H15" s="268"/>
+      <c r="I15" s="268"/>
       <c r="J15" s="79"/>
-      <c r="K15" s="260" t="s">
+      <c r="K15" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="260"/>
+      <c r="L15" s="268"/>
       <c r="M15" s="153"/>
       <c r="N15" s="154"/>
       <c r="O15" s="151"/>
-      <c r="P15" s="246" t="s">
+      <c r="P15" s="282" t="s">
         <v>96</v>
       </c>
-      <c r="Q15" s="247"/>
+      <c r="Q15" s="283"/>
     </row>
     <row r="16" spans="1:45" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="155"/>
@@ -3467,31 +3467,31 @@
       <c r="Q16" s="142"/>
     </row>
     <row r="17" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="243" t="s">
+      <c r="A17" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="243"/>
-      <c r="C17" s="243"/>
-      <c r="D17" s="243"/>
+      <c r="B17" s="251"/>
+      <c r="C17" s="251"/>
+      <c r="D17" s="251"/>
       <c r="E17" s="158"/>
-      <c r="F17" s="261" t="s">
+      <c r="F17" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="261"/>
-      <c r="H17" s="261"/>
-      <c r="I17" s="261"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="259"/>
       <c r="J17" s="159"/>
-      <c r="K17" s="262" t="s">
+      <c r="K17" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="262"/>
+      <c r="L17" s="250"/>
       <c r="M17" s="156"/>
       <c r="N17" s="157"/>
       <c r="O17" s="142"/>
-      <c r="P17" s="248" t="s">
+      <c r="P17" s="246" t="s">
         <v>80</v>
       </c>
-      <c r="Q17" s="249"/>
+      <c r="Q17" s="247"/>
     </row>
     <row r="18" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
@@ -3530,8 +3530,8 @@
       <c r="M18" s="156"/>
       <c r="N18" s="157"/>
       <c r="O18" s="142"/>
-      <c r="P18" s="250"/>
-      <c r="Q18" s="251"/>
+      <c r="P18" s="242"/>
+      <c r="Q18" s="243"/>
     </row>
     <row r="19" spans="1:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="160" t="s">
@@ -3564,8 +3564,8 @@
       <c r="M19" s="156"/>
       <c r="N19" s="157"/>
       <c r="O19" s="142"/>
-      <c r="P19" s="252"/>
-      <c r="Q19" s="253"/>
+      <c r="P19" s="244"/>
+      <c r="Q19" s="245"/>
     </row>
     <row r="20" spans="1:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="160" t="s">
@@ -3634,10 +3634,10 @@
       <c r="M21" s="156"/>
       <c r="N21" s="157"/>
       <c r="O21" s="142"/>
-      <c r="P21" s="248" t="s">
+      <c r="P21" s="246" t="s">
         <v>81</v>
       </c>
-      <c r="Q21" s="249"/>
+      <c r="Q21" s="247"/>
     </row>
     <row r="22" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52"/>
@@ -3655,33 +3655,33 @@
       <c r="M22" s="165"/>
       <c r="N22" s="166"/>
       <c r="O22" s="142"/>
-      <c r="P22" s="250"/>
-      <c r="Q22" s="251"/>
+      <c r="P22" s="242"/>
+      <c r="Q22" s="243"/>
     </row>
     <row r="23" spans="1:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="243" t="s">
+      <c r="A23" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="243"/>
-      <c r="C23" s="243"/>
-      <c r="D23" s="243"/>
+      <c r="B23" s="251"/>
+      <c r="C23" s="251"/>
+      <c r="D23" s="251"/>
       <c r="E23" s="158"/>
-      <c r="F23" s="261" t="s">
+      <c r="F23" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="261"/>
-      <c r="H23" s="261"/>
-      <c r="I23" s="261"/>
+      <c r="G23" s="259"/>
+      <c r="H23" s="259"/>
+      <c r="I23" s="259"/>
       <c r="J23" s="159"/>
-      <c r="K23" s="262" t="s">
+      <c r="K23" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="262"/>
+      <c r="L23" s="250"/>
       <c r="M23" s="165"/>
       <c r="N23" s="166"/>
       <c r="O23" s="142"/>
-      <c r="P23" s="252"/>
-      <c r="Q23" s="253"/>
+      <c r="P23" s="244"/>
+      <c r="Q23" s="245"/>
     </row>
     <row r="24" spans="1:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
@@ -3754,10 +3754,10 @@
       <c r="M25" s="167"/>
       <c r="N25" s="168"/>
       <c r="O25" s="169"/>
-      <c r="P25" s="248" t="s">
+      <c r="P25" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="Q25" s="249"/>
+      <c r="Q25" s="247"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="160" t="s">
@@ -3796,8 +3796,8 @@
       <c r="M26" s="167"/>
       <c r="N26" s="168"/>
       <c r="O26" s="169"/>
-      <c r="P26" s="250"/>
-      <c r="Q26" s="251"/>
+      <c r="P26" s="242"/>
+      <c r="Q26" s="243"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
@@ -3826,8 +3826,8 @@
       <c r="M27" s="167"/>
       <c r="N27" s="168"/>
       <c r="O27" s="169"/>
-      <c r="P27" s="252"/>
-      <c r="Q27" s="253"/>
+      <c r="P27" s="244"/>
+      <c r="Q27" s="245"/>
     </row>
     <row r="28" spans="1:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="158"/>
@@ -3849,31 +3849,31 @@
       <c r="Q28" s="142"/>
     </row>
     <row r="29" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="243" t="s">
+      <c r="A29" s="251" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="243"/>
-      <c r="C29" s="243"/>
-      <c r="D29" s="243"/>
+      <c r="B29" s="251"/>
+      <c r="C29" s="251"/>
+      <c r="D29" s="251"/>
       <c r="E29" s="158"/>
-      <c r="F29" s="261" t="s">
+      <c r="F29" s="259" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="261"/>
-      <c r="H29" s="261"/>
-      <c r="I29" s="261"/>
+      <c r="G29" s="259"/>
+      <c r="H29" s="259"/>
+      <c r="I29" s="259"/>
       <c r="J29" s="159"/>
-      <c r="K29" s="262" t="s">
+      <c r="K29" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="262"/>
+      <c r="L29" s="250"/>
       <c r="M29" s="156"/>
       <c r="N29" s="157"/>
       <c r="O29" s="142"/>
-      <c r="P29" s="280" t="s">
+      <c r="P29" s="238" t="s">
         <v>32</v>
       </c>
-      <c r="Q29" s="281"/>
+      <c r="Q29" s="239"/>
     </row>
     <row r="30" spans="1:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
@@ -3912,11 +3912,11 @@
       <c r="M30" s="172"/>
       <c r="N30" s="173"/>
       <c r="O30" s="142"/>
-      <c r="P30" s="282">
+      <c r="P30" s="240">
         <f>SUM(P26,P22,P18)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="283"/>
+      <c r="Q30" s="241"/>
     </row>
     <row r="31" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="160" t="s">
@@ -4051,24 +4051,24 @@
       <c r="Z34" s="29"/>
     </row>
     <row r="35" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="243" t="s">
+      <c r="A35" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="243"/>
-      <c r="C35" s="243"/>
-      <c r="D35" s="243"/>
+      <c r="B35" s="251"/>
+      <c r="C35" s="251"/>
+      <c r="D35" s="251"/>
       <c r="E35" s="158"/>
-      <c r="F35" s="261" t="s">
+      <c r="F35" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="261"/>
-      <c r="H35" s="261"/>
-      <c r="I35" s="261"/>
+      <c r="G35" s="259"/>
+      <c r="H35" s="259"/>
+      <c r="I35" s="259"/>
       <c r="J35" s="159"/>
-      <c r="K35" s="262" t="s">
+      <c r="K35" s="250" t="s">
         <v>21</v>
       </c>
-      <c r="L35" s="262"/>
+      <c r="L35" s="250"/>
       <c r="M35" s="167"/>
       <c r="N35" s="168"/>
       <c r="O35" s="169"/>
@@ -4215,15 +4215,15 @@
       <c r="O38" s="169"/>
       <c r="P38" s="169"/>
       <c r="Q38" s="142"/>
-      <c r="R38" s="256"/>
-      <c r="S38" s="256"/>
-      <c r="T38" s="258"/>
-      <c r="U38" s="258"/>
+      <c r="R38" s="272"/>
+      <c r="S38" s="272"/>
+      <c r="T38" s="273"/>
+      <c r="U38" s="273"/>
       <c r="V38" s="13"/>
-      <c r="W38" s="256"/>
-      <c r="X38" s="256"/>
-      <c r="Y38" s="258"/>
-      <c r="Z38" s="258"/>
+      <c r="W38" s="272"/>
+      <c r="X38" s="272"/>
+      <c r="Y38" s="273"/>
+      <c r="Z38" s="273"/>
     </row>
     <row r="39" spans="1:30" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="46" t="s">
@@ -4321,23 +4321,23 @@
       <c r="Q41" s="142"/>
     </row>
     <row r="42" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="274"/>
-      <c r="B42" s="274"/>
-      <c r="C42" s="274"/>
-      <c r="D42" s="274"/>
-      <c r="E42" s="274"/>
-      <c r="F42" s="274"/>
-      <c r="G42" s="274"/>
-      <c r="H42" s="274"/>
-      <c r="I42" s="274"/>
-      <c r="J42" s="274"/>
-      <c r="K42" s="274"/>
-      <c r="L42" s="274"/>
-      <c r="M42" s="274"/>
-      <c r="N42" s="274"/>
-      <c r="O42" s="274"/>
-      <c r="P42" s="274"/>
-      <c r="Q42" s="274"/>
+      <c r="A42" s="256"/>
+      <c r="B42" s="256"/>
+      <c r="C42" s="256"/>
+      <c r="D42" s="256"/>
+      <c r="E42" s="256"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="256"/>
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="256"/>
+      <c r="L42" s="256"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="256"/>
+      <c r="Q42" s="256"/>
     </row>
     <row r="43" spans="1:30" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="158"/>
@@ -4372,31 +4372,31 @@
       <c r="AD43" s="13"/>
     </row>
     <row r="44" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="243" t="s">
+      <c r="A44" s="251" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="243"/>
-      <c r="C44" s="243"/>
-      <c r="D44" s="243"/>
+      <c r="B44" s="251"/>
+      <c r="C44" s="251"/>
+      <c r="D44" s="251"/>
       <c r="E44" s="158"/>
-      <c r="F44" s="261" t="s">
+      <c r="F44" s="259" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="261"/>
-      <c r="H44" s="261"/>
-      <c r="I44" s="261"/>
+      <c r="G44" s="259"/>
+      <c r="H44" s="259"/>
+      <c r="I44" s="259"/>
       <c r="J44" s="159"/>
-      <c r="K44" s="272" t="s">
+      <c r="K44" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="L44" s="272"/>
+      <c r="L44" s="258"/>
       <c r="M44" s="156"/>
       <c r="N44" s="157"/>
       <c r="O44" s="176"/>
-      <c r="P44" s="248" t="s">
+      <c r="P44" s="246" t="s">
         <v>80</v>
       </c>
-      <c r="Q44" s="249"/>
+      <c r="Q44" s="247"/>
       <c r="S44" s="13"/>
       <c r="T44" s="13"/>
       <c r="U44" s="13"/>
@@ -4447,21 +4447,21 @@
       <c r="M45" s="156"/>
       <c r="N45" s="157"/>
       <c r="O45" s="176"/>
-      <c r="P45" s="250"/>
-      <c r="Q45" s="251"/>
-      <c r="R45" s="257"/>
-      <c r="S45" s="257"/>
+      <c r="P45" s="242"/>
+      <c r="Q45" s="243"/>
+      <c r="R45" s="269"/>
+      <c r="S45" s="269"/>
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
       <c r="W45" s="35"/>
       <c r="X45" s="29"/>
-      <c r="Y45" s="259"/>
-      <c r="Z45" s="259"/>
-      <c r="AA45" s="259"/>
+      <c r="Y45" s="274"/>
+      <c r="Z45" s="274"/>
+      <c r="AA45" s="274"/>
       <c r="AB45" s="34"/>
-      <c r="AC45" s="257"/>
-      <c r="AD45" s="257"/>
+      <c r="AC45" s="269"/>
+      <c r="AD45" s="269"/>
     </row>
     <row r="46" spans="1:30" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="160" t="s">
@@ -4494,19 +4494,19 @@
       <c r="M46" s="156"/>
       <c r="N46" s="157"/>
       <c r="O46" s="176"/>
-      <c r="P46" s="252"/>
-      <c r="Q46" s="253"/>
+      <c r="P46" s="244"/>
+      <c r="Q46" s="245"/>
       <c r="R46" s="36"/>
       <c r="S46" s="36"/>
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
       <c r="W46" s="13"/>
-      <c r="X46" s="254"/>
-      <c r="Y46" s="254"/>
-      <c r="Z46" s="254"/>
-      <c r="AA46" s="255"/>
-      <c r="AB46" s="255"/>
+      <c r="X46" s="270"/>
+      <c r="Y46" s="270"/>
+      <c r="Z46" s="270"/>
+      <c r="AA46" s="271"/>
+      <c r="AB46" s="271"/>
       <c r="AC46" s="36"/>
       <c r="AD46" s="36"/>
     </row>
@@ -4570,10 +4570,10 @@
       <c r="M48" s="156"/>
       <c r="N48" s="157"/>
       <c r="O48" s="142"/>
-      <c r="P48" s="248" t="s">
+      <c r="P48" s="246" t="s">
         <v>97</v>
       </c>
-      <c r="Q48" s="249"/>
+      <c r="Q48" s="247"/>
     </row>
     <row r="49" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="160" t="s">
@@ -4601,8 +4601,8 @@
       <c r="M49" s="156"/>
       <c r="N49" s="157"/>
       <c r="O49" s="142"/>
-      <c r="P49" s="250"/>
-      <c r="Q49" s="251"/>
+      <c r="P49" s="242"/>
+      <c r="Q49" s="243"/>
     </row>
     <row r="50" spans="1:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="160" t="s">
@@ -4630,8 +4630,8 @@
       <c r="M50" s="156"/>
       <c r="N50" s="157"/>
       <c r="O50" s="142"/>
-      <c r="P50" s="252"/>
-      <c r="Q50" s="253"/>
+      <c r="P50" s="244"/>
+      <c r="Q50" s="245"/>
     </row>
     <row r="51" spans="1:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="160" t="s">
@@ -4688,10 +4688,10 @@
       <c r="M52" s="156"/>
       <c r="N52" s="157"/>
       <c r="O52" s="142"/>
-      <c r="P52" s="248" t="s">
+      <c r="P52" s="246" t="s">
         <v>81</v>
       </c>
-      <c r="Q52" s="249"/>
+      <c r="Q52" s="247"/>
     </row>
     <row r="53" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="160" t="s">
@@ -4719,8 +4719,8 @@
       <c r="M53" s="156"/>
       <c r="N53" s="157"/>
       <c r="O53" s="142"/>
-      <c r="P53" s="250"/>
-      <c r="Q53" s="251"/>
+      <c r="P53" s="242"/>
+      <c r="Q53" s="243"/>
     </row>
     <row r="54" spans="1:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="160" t="s">
@@ -4748,8 +4748,8 @@
       <c r="M54" s="156"/>
       <c r="N54" s="157"/>
       <c r="O54" s="142"/>
-      <c r="P54" s="252"/>
-      <c r="Q54" s="253"/>
+      <c r="P54" s="244"/>
+      <c r="Q54" s="245"/>
     </row>
     <row r="55" spans="1:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="46" t="s">
@@ -4808,10 +4808,10 @@
       <c r="M56" s="156"/>
       <c r="N56" s="157"/>
       <c r="O56" s="142"/>
-      <c r="P56" s="248" t="s">
+      <c r="P56" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="Q56" s="249"/>
+      <c r="Q56" s="247"/>
     </row>
     <row r="57" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="158"/>
@@ -4829,33 +4829,33 @@
       <c r="M57" s="156"/>
       <c r="N57" s="157"/>
       <c r="O57" s="142"/>
-      <c r="P57" s="250"/>
-      <c r="Q57" s="251"/>
+      <c r="P57" s="242"/>
+      <c r="Q57" s="243"/>
     </row>
     <row r="58" spans="1:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="243" t="s">
+      <c r="A58" s="251" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="243"/>
-      <c r="C58" s="243"/>
-      <c r="D58" s="243"/>
+      <c r="B58" s="251"/>
+      <c r="C58" s="251"/>
+      <c r="D58" s="251"/>
       <c r="E58" s="158"/>
-      <c r="F58" s="261" t="s">
+      <c r="F58" s="259" t="s">
         <v>29</v>
       </c>
-      <c r="G58" s="261"/>
-      <c r="H58" s="261"/>
-      <c r="I58" s="261"/>
+      <c r="G58" s="259"/>
+      <c r="H58" s="259"/>
+      <c r="I58" s="259"/>
       <c r="J58" s="159"/>
-      <c r="K58" s="262" t="s">
+      <c r="K58" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="L58" s="262"/>
+      <c r="L58" s="250"/>
       <c r="M58" s="156"/>
       <c r="N58" s="157"/>
       <c r="O58" s="142"/>
-      <c r="P58" s="252"/>
-      <c r="Q58" s="253"/>
+      <c r="P58" s="244"/>
+      <c r="Q58" s="245"/>
     </row>
     <row r="59" spans="1:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
@@ -4928,10 +4928,10 @@
       <c r="M60" s="156"/>
       <c r="N60" s="157"/>
       <c r="O60" s="142"/>
-      <c r="P60" s="280" t="s">
+      <c r="P60" s="238" t="s">
         <v>32</v>
       </c>
-      <c r="Q60" s="281"/>
+      <c r="Q60" s="239"/>
     </row>
     <row r="61" spans="1:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="160" t="s">
@@ -4964,11 +4964,11 @@
       <c r="M61" s="156"/>
       <c r="N61" s="157"/>
       <c r="O61" s="142"/>
-      <c r="P61" s="282">
+      <c r="P61" s="240">
         <f>SUM(P45,P49,P53,P57)</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="283"/>
+      <c r="Q61" s="241"/>
     </row>
     <row r="62" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="98" t="s">
@@ -5277,21 +5277,21 @@
       <c r="Q72" s="142"/>
     </row>
     <row r="73" spans="1:17" ht="44.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="277" t="s">
+      <c r="A73" s="252" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="278"/>
-      <c r="C73" s="279"/>
+      <c r="B73" s="253"/>
+      <c r="C73" s="254"/>
       <c r="D73" s="67">
         <f>SUM(D21,D27,D33,D39,D55,D69)</f>
         <v>0</v>
       </c>
       <c r="E73" s="158"/>
-      <c r="F73" s="273" t="s">
+      <c r="F73" s="260" t="s">
         <v>24</v>
       </c>
-      <c r="G73" s="273"/>
-      <c r="H73" s="273"/>
+      <c r="G73" s="260"/>
+      <c r="H73" s="260"/>
       <c r="I73" s="86">
         <f>SUM(I55,I69,I38,I32,I26,I20)</f>
         <v>0</v>
@@ -5330,39 +5330,39 @@
       <c r="Q74" s="142"/>
     </row>
     <row r="75" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="274"/>
-      <c r="B75" s="274"/>
-      <c r="C75" s="274"/>
-      <c r="D75" s="274"/>
-      <c r="E75" s="274"/>
-      <c r="F75" s="274"/>
-      <c r="G75" s="274"/>
-      <c r="H75" s="274"/>
-      <c r="I75" s="274"/>
-      <c r="J75" s="274"/>
-      <c r="K75" s="274"/>
-      <c r="L75" s="274"/>
-      <c r="M75" s="274"/>
-      <c r="N75" s="274"/>
-      <c r="O75" s="274"/>
-      <c r="P75" s="274"/>
-      <c r="Q75" s="274"/>
+      <c r="A75" s="256"/>
+      <c r="B75" s="256"/>
+      <c r="C75" s="256"/>
+      <c r="D75" s="256"/>
+      <c r="E75" s="256"/>
+      <c r="F75" s="256"/>
+      <c r="G75" s="256"/>
+      <c r="H75" s="256"/>
+      <c r="I75" s="256"/>
+      <c r="J75" s="256"/>
+      <c r="K75" s="256"/>
+      <c r="L75" s="256"/>
+      <c r="M75" s="256"/>
+      <c r="N75" s="256"/>
+      <c r="O75" s="256"/>
+      <c r="P75" s="256"/>
+      <c r="Q75" s="256"/>
     </row>
     <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="271" t="s">
+      <c r="A77" s="257" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="271"/>
-      <c r="C77" s="271"/>
-      <c r="D77" s="271"/>
-      <c r="E77" s="271"/>
-      <c r="F77" s="271"/>
-      <c r="G77" s="271"/>
-      <c r="H77" s="271"/>
-      <c r="I77" s="271"/>
-      <c r="J77" s="271"/>
-      <c r="K77" s="271"/>
-      <c r="L77" s="271"/>
+      <c r="B77" s="257"/>
+      <c r="C77" s="257"/>
+      <c r="D77" s="257"/>
+      <c r="E77" s="257"/>
+      <c r="F77" s="257"/>
+      <c r="G77" s="257"/>
+      <c r="H77" s="257"/>
+      <c r="I77" s="257"/>
+      <c r="J77" s="257"/>
+      <c r="K77" s="257"/>
+      <c r="L77" s="257"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="37"/>
@@ -5379,68 +5379,68 @@
       <c r="L78" s="38"/>
     </row>
     <row r="79" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="270" t="s">
+      <c r="A79" s="255" t="s">
         <v>63</v>
       </c>
-      <c r="B79" s="270"/>
-      <c r="C79" s="270"/>
-      <c r="D79" s="270"/>
-      <c r="E79" s="270"/>
-      <c r="F79" s="270"/>
-      <c r="G79" s="270"/>
-      <c r="H79" s="270"/>
-      <c r="I79" s="270"/>
-      <c r="J79" s="270"/>
-      <c r="K79" s="270"/>
-      <c r="L79" s="270"/>
+      <c r="B79" s="255"/>
+      <c r="C79" s="255"/>
+      <c r="D79" s="255"/>
+      <c r="E79" s="255"/>
+      <c r="F79" s="255"/>
+      <c r="G79" s="255"/>
+      <c r="H79" s="255"/>
+      <c r="I79" s="255"/>
+      <c r="J79" s="255"/>
+      <c r="K79" s="255"/>
+      <c r="L79" s="255"/>
     </row>
     <row r="80" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="270" t="s">
+      <c r="A80" s="255" t="s">
         <v>64</v>
       </c>
-      <c r="B80" s="270"/>
-      <c r="C80" s="270"/>
-      <c r="D80" s="270"/>
-      <c r="E80" s="270"/>
-      <c r="F80" s="270"/>
-      <c r="G80" s="270"/>
-      <c r="H80" s="270"/>
-      <c r="I80" s="270"/>
-      <c r="J80" s="270"/>
-      <c r="K80" s="270"/>
-      <c r="L80" s="270"/>
+      <c r="B80" s="255"/>
+      <c r="C80" s="255"/>
+      <c r="D80" s="255"/>
+      <c r="E80" s="255"/>
+      <c r="F80" s="255"/>
+      <c r="G80" s="255"/>
+      <c r="H80" s="255"/>
+      <c r="I80" s="255"/>
+      <c r="J80" s="255"/>
+      <c r="K80" s="255"/>
+      <c r="L80" s="255"/>
     </row>
     <row r="81" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="270" t="s">
+      <c r="A81" s="255" t="s">
         <v>65</v>
       </c>
-      <c r="B81" s="270"/>
-      <c r="C81" s="270"/>
-      <c r="D81" s="270"/>
-      <c r="E81" s="270"/>
-      <c r="F81" s="270"/>
-      <c r="G81" s="270"/>
-      <c r="H81" s="270"/>
-      <c r="I81" s="270"/>
-      <c r="J81" s="270"/>
-      <c r="K81" s="270"/>
-      <c r="L81" s="270"/>
+      <c r="B81" s="255"/>
+      <c r="C81" s="255"/>
+      <c r="D81" s="255"/>
+      <c r="E81" s="255"/>
+      <c r="F81" s="255"/>
+      <c r="G81" s="255"/>
+      <c r="H81" s="255"/>
+      <c r="I81" s="255"/>
+      <c r="J81" s="255"/>
+      <c r="K81" s="255"/>
+      <c r="L81" s="255"/>
     </row>
     <row r="82" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="270" t="s">
+      <c r="A82" s="255" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="270"/>
-      <c r="C82" s="270"/>
-      <c r="D82" s="270"/>
-      <c r="E82" s="270"/>
-      <c r="F82" s="270"/>
-      <c r="G82" s="270"/>
-      <c r="H82" s="270"/>
-      <c r="I82" s="270"/>
-      <c r="J82" s="270"/>
-      <c r="K82" s="270"/>
-      <c r="L82" s="270"/>
+      <c r="B82" s="255"/>
+      <c r="C82" s="255"/>
+      <c r="D82" s="255"/>
+      <c r="E82" s="255"/>
+      <c r="F82" s="255"/>
+      <c r="G82" s="255"/>
+      <c r="H82" s="255"/>
+      <c r="I82" s="255"/>
+      <c r="J82" s="255"/>
+      <c r="K82" s="255"/>
+      <c r="L82" s="255"/>
     </row>
     <row r="83" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="77"/>
@@ -5457,17 +5457,17 @@
       <c r="L83" s="77"/>
     </row>
     <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="275" t="s">
+      <c r="A84" s="248" t="s">
         <v>61</v>
       </c>
-      <c r="B84" s="275"/>
-      <c r="C84" s="275"/>
-      <c r="D84" s="275"/>
-      <c r="E84" s="275"/>
-      <c r="F84" s="275"/>
-      <c r="G84" s="275"/>
-      <c r="H84" s="275"/>
-      <c r="I84" s="275"/>
+      <c r="B84" s="248"/>
+      <c r="C84" s="248"/>
+      <c r="D84" s="248"/>
+      <c r="E84" s="248"/>
+      <c r="F84" s="248"/>
+      <c r="G84" s="248"/>
+      <c r="H84" s="248"/>
+      <c r="I84" s="248"/>
       <c r="J84" s="78"/>
       <c r="K84" s="78"/>
       <c r="L84" s="78"/>
@@ -5476,19 +5476,19 @@
       <c r="O84" s="41"/>
     </row>
     <row r="85" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="276" t="s">
+      <c r="A85" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="B85" s="276"/>
-      <c r="C85" s="276"/>
-      <c r="D85" s="276"/>
+      <c r="B85" s="249"/>
+      <c r="C85" s="249"/>
+      <c r="D85" s="249"/>
       <c r="E85" s="20"/>
-      <c r="F85" s="276" t="s">
+      <c r="F85" s="249" t="s">
         <v>28</v>
       </c>
-      <c r="G85" s="276"/>
-      <c r="H85" s="276"/>
-      <c r="I85" s="276"/>
+      <c r="G85" s="249"/>
+      <c r="H85" s="249"/>
+      <c r="I85" s="249"/>
       <c r="J85" s="42"/>
       <c r="K85" s="43"/>
       <c r="L85" s="44"/>
@@ -5567,13 +5567,54 @@
   </sheetData>
   <sheetProtection password="C691" sheet="1" selectLockedCells="1"/>
   <mergeCells count="71">
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P45:Q46"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P49:Q50"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q54"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q27"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="A42:Q42"/>
+    <mergeCell ref="P57:Q58"/>
+    <mergeCell ref="P56:Q56"/>
     <mergeCell ref="A84:I84"/>
     <mergeCell ref="A85:D85"/>
     <mergeCell ref="F85:I85"/>
@@ -5590,54 +5631,13 @@
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="A42:Q42"/>
-    <mergeCell ref="P57:Q58"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q27"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q23"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P45:Q46"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P49:Q50"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5655,14 +5655,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha2">
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
   <dimension ref="A1:IR117"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5684,22 +5684,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="263"/>
-      <c r="K1" s="263"/>
-      <c r="L1" s="263"/>
-      <c r="M1" s="263"/>
-      <c r="N1" s="263"/>
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="261"/>
+      <c r="M1" s="261"/>
+      <c r="N1" s="261"/>
       <c r="O1" s="180"/>
       <c r="P1" s="181"/>
       <c r="Q1" s="119"/>
@@ -5707,22 +5707,22 @@
       <c r="S1" s="182"/>
     </row>
     <row r="2" spans="1:41" ht="15.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="264"/>
-      <c r="L2" s="264"/>
-      <c r="M2" s="264"/>
-      <c r="N2" s="264"/>
+      <c r="B2" s="262"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="262"/>
+      <c r="N2" s="262"/>
       <c r="O2" s="183"/>
       <c r="P2" s="184"/>
       <c r="Q2" s="122"/>
@@ -5730,22 +5730,22 @@
       <c r="S2" s="185"/>
     </row>
     <row r="3" spans="1:41" ht="15.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="265" t="s">
+      <c r="A3" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="265"/>
-      <c r="J3" s="265"/>
-      <c r="K3" s="265"/>
-      <c r="L3" s="265"/>
-      <c r="M3" s="265"/>
-      <c r="N3" s="265"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
       <c r="O3" s="183"/>
       <c r="P3" s="184"/>
       <c r="Q3" s="122"/>
@@ -5777,17 +5777,17 @@
       <c r="A5" s="221" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="302"/>
-      <c r="C5" s="302"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
-      <c r="K5" s="302"/>
-      <c r="L5" s="302"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
+      <c r="I5" s="292"/>
+      <c r="J5" s="292"/>
+      <c r="K5" s="292"/>
+      <c r="L5" s="292"/>
       <c r="M5" s="111"/>
       <c r="N5" s="111"/>
       <c r="O5" s="111"/>
@@ -5819,22 +5819,22 @@
       <c r="AO5" s="6"/>
     </row>
     <row r="6" spans="1:41" s="82" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="304" t="s">
+      <c r="A6" s="294" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="305"/>
-      <c r="C6" s="306"/>
-      <c r="D6" s="306"/>
-      <c r="E6" s="306"/>
-      <c r="F6" s="306"/>
-      <c r="G6" s="306"/>
-      <c r="H6" s="306"/>
-      <c r="I6" s="306"/>
-      <c r="J6" s="306"/>
-      <c r="K6" s="306"/>
-      <c r="L6" s="306"/>
-      <c r="M6" s="306"/>
-      <c r="N6" s="306"/>
+      <c r="B6" s="295"/>
+      <c r="C6" s="296"/>
+      <c r="D6" s="296"/>
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="296"/>
+      <c r="K6" s="296"/>
+      <c r="L6" s="296"/>
+      <c r="M6" s="296"/>
+      <c r="N6" s="296"/>
       <c r="O6" s="113"/>
       <c r="P6" s="113"/>
       <c r="Q6" s="113"/>
@@ -5845,17 +5845,17 @@
       <c r="A7" s="222" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="303"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
-      <c r="L7" s="303"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="293"/>
+      <c r="G7" s="293"/>
+      <c r="H7" s="293"/>
+      <c r="I7" s="293"/>
+      <c r="J7" s="293"/>
+      <c r="K7" s="293"/>
+      <c r="L7" s="293"/>
       <c r="M7" s="115"/>
       <c r="N7" s="115"/>
       <c r="O7" s="115"/>
@@ -5886,27 +5886,27 @@
       <c r="S8" s="185"/>
     </row>
     <row r="9" spans="1:41" ht="24.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="266" t="s">
+      <c r="A9" s="264" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="267"/>
-      <c r="C9" s="267"/>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="267"/>
-      <c r="J9" s="267"/>
-      <c r="K9" s="267"/>
-      <c r="L9" s="267"/>
-      <c r="M9" s="267"/>
-      <c r="N9" s="267"/>
-      <c r="O9" s="267"/>
-      <c r="P9" s="267"/>
-      <c r="Q9" s="267"/>
-      <c r="R9" s="267"/>
-      <c r="S9" s="268"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="265"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="265"/>
+      <c r="F9" s="265"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="265"/>
+      <c r="I9" s="265"/>
+      <c r="J9" s="265"/>
+      <c r="K9" s="265"/>
+      <c r="L9" s="265"/>
+      <c r="M9" s="265"/>
+      <c r="N9" s="265"/>
+      <c r="O9" s="265"/>
+      <c r="P9" s="265"/>
+      <c r="Q9" s="265"/>
+      <c r="R9" s="265"/>
+      <c r="S9" s="266"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
@@ -5940,27 +5940,27 @@
       <c r="S10" s="169"/>
     </row>
     <row r="11" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="301" t="s">
+      <c r="A11" s="284" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="301"/>
-      <c r="C11" s="301"/>
-      <c r="D11" s="301"/>
-      <c r="E11" s="301"/>
-      <c r="F11" s="301"/>
-      <c r="G11" s="301"/>
-      <c r="H11" s="301"/>
-      <c r="I11" s="301"/>
-      <c r="J11" s="301"/>
-      <c r="K11" s="301"/>
-      <c r="L11" s="301"/>
-      <c r="M11" s="301"/>
-      <c r="N11" s="301"/>
-      <c r="O11" s="301"/>
-      <c r="P11" s="301"/>
-      <c r="Q11" s="301"/>
-      <c r="R11" s="301"/>
-      <c r="S11" s="301"/>
+      <c r="B11" s="284"/>
+      <c r="C11" s="284"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="284"/>
+      <c r="F11" s="284"/>
+      <c r="G11" s="284"/>
+      <c r="H11" s="284"/>
+      <c r="I11" s="284"/>
+      <c r="J11" s="284"/>
+      <c r="K11" s="284"/>
+      <c r="L11" s="284"/>
+      <c r="M11" s="284"/>
+      <c r="N11" s="284"/>
+      <c r="O11" s="284"/>
+      <c r="P11" s="284"/>
+      <c r="Q11" s="284"/>
+      <c r="R11" s="284"/>
+      <c r="S11" s="284"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
@@ -5989,20 +5989,20 @@
       <c r="S12" s="169"/>
     </row>
     <row r="13" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="300"/>
-      <c r="B13" s="300"/>
-      <c r="C13" s="300"/>
-      <c r="D13" s="300"/>
-      <c r="E13" s="300"/>
-      <c r="F13" s="300"/>
-      <c r="G13" s="300"/>
-      <c r="H13" s="300"/>
-      <c r="I13" s="300"/>
-      <c r="J13" s="300"/>
-      <c r="K13" s="300"/>
-      <c r="L13" s="300"/>
-      <c r="M13" s="300"/>
-      <c r="N13" s="300"/>
+      <c r="A13" s="291"/>
+      <c r="B13" s="291"/>
+      <c r="C13" s="291"/>
+      <c r="D13" s="291"/>
+      <c r="E13" s="291"/>
+      <c r="F13" s="291"/>
+      <c r="G13" s="291"/>
+      <c r="H13" s="291"/>
+      <c r="I13" s="291"/>
+      <c r="J13" s="291"/>
+      <c r="K13" s="291"/>
+      <c r="L13" s="291"/>
+      <c r="M13" s="291"/>
+      <c r="N13" s="291"/>
       <c r="O13" s="195"/>
       <c r="P13" s="196"/>
       <c r="Q13" s="150"/>
@@ -6031,26 +6031,26 @@
       <c r="S14" s="169"/>
     </row>
     <row r="15" spans="1:41" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="289" t="s">
+      <c r="A15" s="309" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="289"/>
-      <c r="C15" s="289"/>
-      <c r="D15" s="289"/>
+      <c r="B15" s="309"/>
+      <c r="C15" s="309"/>
+      <c r="D15" s="309"/>
       <c r="E15" s="199"/>
-      <c r="F15" s="289" t="s">
+      <c r="F15" s="309" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="289"/>
-      <c r="H15" s="289"/>
-      <c r="I15" s="289"/>
+      <c r="G15" s="309"/>
+      <c r="H15" s="309"/>
+      <c r="I15" s="309"/>
       <c r="J15" s="200"/>
-      <c r="K15" s="289" t="s">
+      <c r="K15" s="309" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="289"/>
-      <c r="M15" s="289"/>
-      <c r="N15" s="289"/>
+      <c r="L15" s="309"/>
+      <c r="M15" s="309"/>
+      <c r="N15" s="309"/>
       <c r="O15" s="197"/>
       <c r="P15" s="198"/>
       <c r="Q15" s="151"/>
@@ -6083,33 +6083,33 @@
       <c r="U16" s="13"/>
     </row>
     <row r="17" spans="1:35" s="60" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="286" t="s">
+      <c r="A17" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="287"/>
-      <c r="C17" s="287"/>
-      <c r="D17" s="288"/>
+      <c r="B17" s="286"/>
+      <c r="C17" s="286"/>
+      <c r="D17" s="287"/>
       <c r="E17" s="158"/>
-      <c r="F17" s="286" t="s">
+      <c r="F17" s="285" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="287"/>
-      <c r="H17" s="287"/>
-      <c r="I17" s="288"/>
+      <c r="G17" s="286"/>
+      <c r="H17" s="286"/>
+      <c r="I17" s="287"/>
       <c r="J17" s="179"/>
-      <c r="K17" s="262" t="s">
+      <c r="K17" s="250" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="262"/>
-      <c r="M17" s="262"/>
-      <c r="N17" s="262"/>
+      <c r="L17" s="250"/>
+      <c r="M17" s="250"/>
+      <c r="N17" s="250"/>
       <c r="O17" s="176"/>
       <c r="P17" s="202"/>
       <c r="Q17" s="142"/>
-      <c r="R17" s="246" t="s">
+      <c r="R17" s="282" t="s">
         <v>96</v>
       </c>
-      <c r="S17" s="247"/>
+      <c r="S17" s="283"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="59"/>
@@ -6171,8 +6171,8 @@
       <c r="Q18" s="142"/>
       <c r="R18" s="142"/>
       <c r="S18" s="142"/>
-      <c r="T18" s="257"/>
-      <c r="U18" s="257"/>
+      <c r="T18" s="269"/>
+      <c r="U18" s="269"/>
       <c r="V18" s="59"/>
       <c r="W18" s="59"/>
       <c r="X18" s="59"/>
@@ -6212,23 +6212,19 @@
       <c r="K19" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="23">
-        <v>4</v>
-      </c>
-      <c r="M19" s="23">
-        <v>1</v>
-      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
       <c r="N19" s="63">
         <f>L19+M19</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O19" s="176"/>
       <c r="P19" s="202"/>
       <c r="Q19" s="142"/>
-      <c r="R19" s="248" t="s">
+      <c r="R19" s="246" t="s">
         <v>80</v>
       </c>
-      <c r="S19" s="249"/>
+      <c r="S19" s="247"/>
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
       <c r="V19" s="61"/>
@@ -6270,23 +6266,17 @@
       <c r="K20" s="203" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="23">
-        <v>3</v>
-      </c>
-      <c r="M20" s="23">
-        <v>1</v>
-      </c>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
       <c r="N20" s="63">
         <f>L20+M20</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O20" s="176"/>
       <c r="P20" s="202"/>
       <c r="Q20" s="142"/>
-      <c r="R20" s="250">
-        <v>317</v>
-      </c>
-      <c r="S20" s="251"/>
+      <c r="R20" s="242"/>
+      <c r="S20" s="243"/>
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
       <c r="V20" s="61"/>
@@ -6328,21 +6318,17 @@
       <c r="K21" s="203" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="23">
-        <v>1</v>
-      </c>
-      <c r="M21" s="23">
-        <v>4</v>
-      </c>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
       <c r="N21" s="63">
         <f>L21+M21</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O21" s="176"/>
       <c r="P21" s="202"/>
       <c r="Q21" s="142"/>
-      <c r="R21" s="252"/>
-      <c r="S21" s="253"/>
+      <c r="R21" s="244"/>
+      <c r="S21" s="245"/>
       <c r="T21" s="27"/>
       <c r="U21" s="27"/>
       <c r="V21" s="61"/>
@@ -6384,15 +6370,11 @@
       <c r="K22" s="203" t="s">
         <v>68</v>
       </c>
-      <c r="L22" s="23">
-        <v>2</v>
-      </c>
-      <c r="M22" s="23">
-        <v>5</v>
-      </c>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
       <c r="N22" s="63">
         <f>L22+M22</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O22" s="175"/>
       <c r="P22" s="204"/>
@@ -6442,23 +6424,23 @@
       </c>
       <c r="L23" s="46">
         <f>SUM(L19:L22)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M23" s="46">
         <f>SUM(M19:M22)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N23" s="46">
         <f>SUM(N19:N22)</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O23" s="175"/>
       <c r="P23" s="204"/>
       <c r="Q23" s="142"/>
-      <c r="R23" s="248" t="s">
+      <c r="R23" s="246" t="s">
         <v>97</v>
       </c>
-      <c r="S23" s="249"/>
+      <c r="S23" s="247"/>
       <c r="T23" s="27"/>
       <c r="U23" s="27"/>
       <c r="V23" s="61"/>
@@ -6504,8 +6486,8 @@
       <c r="O24" s="207"/>
       <c r="P24" s="208"/>
       <c r="Q24" s="169"/>
-      <c r="R24" s="250"/>
-      <c r="S24" s="251"/>
+      <c r="R24" s="242"/>
+      <c r="S24" s="243"/>
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
       <c r="V24" s="59"/>
@@ -6544,17 +6526,17 @@
         <v>0</v>
       </c>
       <c r="J25" s="179"/>
-      <c r="K25" s="262" t="s">
+      <c r="K25" s="250" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="262"/>
-      <c r="M25" s="262"/>
-      <c r="N25" s="262"/>
+      <c r="L25" s="250"/>
+      <c r="M25" s="250"/>
+      <c r="N25" s="250"/>
       <c r="O25" s="207"/>
       <c r="P25" s="208"/>
       <c r="Q25" s="169"/>
-      <c r="R25" s="252"/>
-      <c r="S25" s="253"/>
+      <c r="R25" s="244"/>
+      <c r="S25" s="245"/>
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
       <c r="V25" s="59"/>
@@ -6651,23 +6633,19 @@
       <c r="K27" s="203" t="s">
         <v>52</v>
       </c>
-      <c r="L27" s="23">
-        <v>4</v>
-      </c>
-      <c r="M27" s="23">
-        <v>6</v>
-      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
       <c r="N27" s="63">
         <f>L27+M27</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O27" s="207"/>
       <c r="P27" s="208"/>
       <c r="Q27" s="169"/>
-      <c r="R27" s="248" t="s">
+      <c r="R27" s="246" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="249"/>
+      <c r="S27" s="247"/>
       <c r="T27" s="36"/>
       <c r="U27" s="36"/>
       <c r="V27" s="59"/>
@@ -6709,23 +6687,17 @@
       <c r="K28" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="23">
-        <v>5</v>
-      </c>
-      <c r="M28" s="23">
-        <v>1</v>
-      </c>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
       <c r="N28" s="63">
         <f>L28+M28</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O28" s="207"/>
       <c r="P28" s="208"/>
       <c r="Q28" s="169"/>
-      <c r="R28" s="250">
-        <v>327</v>
-      </c>
-      <c r="S28" s="251"/>
+      <c r="R28" s="242"/>
+      <c r="S28" s="243"/>
       <c r="T28" s="59"/>
       <c r="U28" s="59"/>
       <c r="V28" s="59"/>
@@ -6767,21 +6739,17 @@
       <c r="K29" s="203" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="23">
-        <v>5</v>
-      </c>
-      <c r="M29" s="23">
-        <v>8</v>
-      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
       <c r="N29" s="63">
         <f>L29+M29</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O29" s="176"/>
       <c r="P29" s="202"/>
       <c r="Q29" s="142"/>
-      <c r="R29" s="252"/>
-      <c r="S29" s="253"/>
+      <c r="R29" s="244"/>
+      <c r="S29" s="245"/>
       <c r="T29" s="59"/>
       <c r="U29" s="59"/>
       <c r="V29" s="59"/>
@@ -6823,15 +6791,11 @@
       <c r="K30" s="203" t="s">
         <v>55</v>
       </c>
-      <c r="L30" s="23">
-        <v>7</v>
-      </c>
-      <c r="M30" s="23">
-        <v>11</v>
-      </c>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
       <c r="N30" s="63">
         <f>L30+M30</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O30" s="177"/>
       <c r="P30" s="209"/>
@@ -6881,23 +6845,23 @@
       </c>
       <c r="L31" s="46">
         <f>SUM(L26:L30)</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M31" s="46">
         <f>SUM(M26:M30)</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N31" s="46">
         <f>SUM(N26:N30)</f>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="O31" s="177"/>
       <c r="P31" s="209"/>
       <c r="Q31" s="142"/>
-      <c r="R31" s="248" t="s">
+      <c r="R31" s="246" t="s">
         <v>98</v>
       </c>
-      <c r="S31" s="249"/>
+      <c r="S31" s="247"/>
       <c r="T31" s="59"/>
       <c r="U31" s="59"/>
       <c r="V31" s="59"/>
@@ -6943,10 +6907,8 @@
       <c r="O32" s="176"/>
       <c r="P32" s="202"/>
       <c r="Q32" s="142"/>
-      <c r="R32" s="250">
-        <v>133</v>
-      </c>
-      <c r="S32" s="251"/>
+      <c r="R32" s="242"/>
+      <c r="S32" s="243"/>
       <c r="T32" s="59"/>
       <c r="U32" s="59"/>
       <c r="V32" s="59"/>
@@ -6997,17 +6959,17 @@
         <v>0</v>
       </c>
       <c r="J33" s="179"/>
-      <c r="K33" s="262" t="s">
+      <c r="K33" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="L33" s="262"/>
-      <c r="M33" s="262"/>
-      <c r="N33" s="262"/>
+      <c r="L33" s="250"/>
+      <c r="M33" s="250"/>
+      <c r="N33" s="250"/>
       <c r="O33" s="176"/>
       <c r="P33" s="202"/>
       <c r="Q33" s="142"/>
-      <c r="R33" s="252"/>
-      <c r="S33" s="253"/>
+      <c r="R33" s="244"/>
+      <c r="S33" s="245"/>
       <c r="T33" s="59"/>
       <c r="U33" s="59"/>
       <c r="V33" s="59"/>
@@ -7071,32 +7033,28 @@
       <c r="AI34" s="59"/>
     </row>
     <row r="35" spans="1:35" s="60" customFormat="1" ht="15.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="286" t="s">
+      <c r="A35" s="285" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="287"/>
-      <c r="C35" s="287"/>
-      <c r="D35" s="288"/>
+      <c r="B35" s="286"/>
+      <c r="C35" s="286"/>
+      <c r="D35" s="287"/>
       <c r="E35" s="158"/>
-      <c r="F35" s="286" t="s">
+      <c r="F35" s="285" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="287"/>
-      <c r="H35" s="287"/>
-      <c r="I35" s="288"/>
+      <c r="G35" s="286"/>
+      <c r="H35" s="286"/>
+      <c r="I35" s="287"/>
       <c r="J35" s="179"/>
       <c r="K35" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="23">
-        <v>10</v>
-      </c>
-      <c r="M35" s="23">
-        <v>6</v>
-      </c>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
       <c r="N35" s="63">
         <f>L35+M35</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O35" s="207"/>
       <c r="P35" s="208"/>
@@ -7150,23 +7108,19 @@
       <c r="K36" s="203" t="s">
         <v>35</v>
       </c>
-      <c r="L36" s="23">
-        <v>11</v>
-      </c>
-      <c r="M36" s="23">
-        <v>9</v>
-      </c>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
       <c r="N36" s="63">
         <f>L36+M36</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O36" s="207"/>
       <c r="P36" s="208"/>
       <c r="Q36" s="169"/>
-      <c r="R36" s="280" t="s">
+      <c r="R36" s="238" t="s">
         <v>32</v>
       </c>
-      <c r="S36" s="281"/>
+      <c r="S36" s="239"/>
       <c r="T36" s="59"/>
       <c r="U36" s="59"/>
       <c r="V36" s="59"/>
@@ -7208,24 +7162,20 @@
       <c r="K37" s="203" t="s">
         <v>36</v>
       </c>
-      <c r="L37" s="23">
-        <v>12</v>
-      </c>
-      <c r="M37" s="23">
-        <v>17</v>
-      </c>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
       <c r="N37" s="63">
         <f>L37+M37</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="O37" s="207"/>
       <c r="P37" s="208"/>
       <c r="Q37" s="169"/>
-      <c r="R37" s="282">
+      <c r="R37" s="240">
         <f>SUM(R28,R24,R20,R32)</f>
-        <v>777</v>
-      </c>
-      <c r="S37" s="283"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="241"/>
       <c r="T37" s="59"/>
       <c r="U37" s="59"/>
       <c r="V37" s="59"/>
@@ -7269,15 +7219,15 @@
       </c>
       <c r="L38" s="46">
         <f>SUM(L35:L37)</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M38" s="46">
         <f>SUM(M35:M37)</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N38" s="46">
         <f>SUM(N35:N37)</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="O38" s="207"/>
       <c r="P38" s="208"/>
@@ -7369,14 +7319,14 @@
         <v>0</v>
       </c>
       <c r="J40" s="179"/>
-      <c r="K40" s="290" t="s">
+      <c r="K40" s="299" t="s">
         <v>92</v>
       </c>
-      <c r="L40" s="290"/>
-      <c r="M40" s="290"/>
+      <c r="L40" s="299"/>
+      <c r="M40" s="299"/>
       <c r="N40" s="69">
         <f>SUM(N23,N31,N38)</f>
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="O40" s="207"/>
       <c r="P40" s="208"/>
@@ -7967,19 +7917,19 @@
       <c r="AI52" s="59"/>
     </row>
     <row r="53" spans="1:35" s="60" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="286" t="s">
+      <c r="A53" s="285" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="287"/>
-      <c r="C53" s="287"/>
-      <c r="D53" s="288"/>
+      <c r="B53" s="286"/>
+      <c r="C53" s="286"/>
+      <c r="D53" s="287"/>
       <c r="E53" s="158"/>
-      <c r="F53" s="286" t="s">
+      <c r="F53" s="285" t="s">
         <v>41</v>
       </c>
-      <c r="G53" s="287"/>
-      <c r="H53" s="287"/>
-      <c r="I53" s="288"/>
+      <c r="G53" s="286"/>
+      <c r="H53" s="286"/>
+      <c r="I53" s="287"/>
       <c r="J53" s="179"/>
       <c r="K53" s="211"/>
       <c r="L53" s="211"/>
@@ -8815,19 +8765,19 @@
       <c r="AI70" s="59"/>
     </row>
     <row r="71" spans="1:35" s="60" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="286" t="s">
+      <c r="A71" s="285" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="287"/>
-      <c r="C71" s="287"/>
-      <c r="D71" s="288"/>
+      <c r="B71" s="286"/>
+      <c r="C71" s="286"/>
+      <c r="D71" s="287"/>
       <c r="E71" s="158"/>
-      <c r="F71" s="286" t="s">
+      <c r="F71" s="285" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="287"/>
-      <c r="H71" s="287"/>
-      <c r="I71" s="288"/>
+      <c r="G71" s="286"/>
+      <c r="H71" s="286"/>
+      <c r="I71" s="287"/>
       <c r="J71" s="179"/>
       <c r="K71" s="212"/>
       <c r="L71" s="212"/>
@@ -9663,12 +9613,12 @@
       <c r="AI88" s="59"/>
     </row>
     <row r="89" spans="1:35" s="60" customFormat="1" ht="15.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="286" t="s">
+      <c r="A89" s="285" t="s">
         <v>38</v>
       </c>
-      <c r="B89" s="287"/>
-      <c r="C89" s="287"/>
-      <c r="D89" s="288"/>
+      <c r="B89" s="286"/>
+      <c r="C89" s="286"/>
+      <c r="D89" s="287"/>
       <c r="E89" s="158"/>
       <c r="F89" s="219"/>
       <c r="G89" s="219"/>
@@ -9715,11 +9665,11 @@
         <v>32</v>
       </c>
       <c r="E90" s="158"/>
-      <c r="F90" s="290" t="s">
+      <c r="F90" s="299" t="s">
         <v>44</v>
       </c>
-      <c r="G90" s="290"/>
-      <c r="H90" s="290"/>
+      <c r="G90" s="299"/>
+      <c r="H90" s="299"/>
       <c r="I90" s="69">
         <f>SUM(I87,I69,I51,I33)</f>
         <v>0</v>
@@ -9755,15 +9705,11 @@
       <c r="A91" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="23">
-        <v>13</v>
-      </c>
-      <c r="C91" s="23">
-        <v>10</v>
-      </c>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
       <c r="D91" s="63">
         <f>B91+C91</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E91" s="158"/>
       <c r="F91" s="52"/>
@@ -9801,15 +9747,11 @@
       <c r="A92" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="23">
-        <v>9</v>
-      </c>
-      <c r="C92" s="23">
-        <v>16</v>
-      </c>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
       <c r="D92" s="63">
         <f t="shared" ref="D92:D102" si="8">B92+C92</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E92" s="158"/>
       <c r="F92" s="52"/>
@@ -9847,15 +9789,11 @@
       <c r="A93" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="23">
-        <v>12</v>
-      </c>
-      <c r="C93" s="23">
-        <v>15</v>
-      </c>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
       <c r="D93" s="63">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E93" s="158"/>
       <c r="F93" s="52"/>
@@ -9893,15 +9831,11 @@
       <c r="A94" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="23">
-        <v>15</v>
-      </c>
-      <c r="C94" s="23">
-        <v>9</v>
-      </c>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
       <c r="D94" s="63">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E94" s="158"/>
       <c r="F94" s="52"/>
@@ -9939,15 +9873,11 @@
       <c r="A95" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="23">
-        <v>14</v>
-      </c>
-      <c r="C95" s="23">
-        <v>12</v>
-      </c>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
       <c r="D95" s="63">
         <f t="shared" si="8"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E95" s="158"/>
       <c r="F95" s="52"/>
@@ -9985,15 +9915,11 @@
       <c r="A96" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="23">
-        <v>17</v>
-      </c>
-      <c r="C96" s="23">
-        <v>10</v>
-      </c>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
       <c r="D96" s="63">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E96" s="158"/>
       <c r="F96" s="174"/>
@@ -10031,15 +9957,11 @@
       <c r="A97" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="23">
-        <v>12</v>
-      </c>
-      <c r="C97" s="23">
-        <v>12</v>
-      </c>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
       <c r="D97" s="63">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E97" s="158"/>
       <c r="F97" s="174"/>
@@ -10373,15 +10295,15 @@
       </c>
       <c r="B105" s="46">
         <f>SUM(B91:B104)</f>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="C105" s="46">
         <f>SUM(C91:C104)</f>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D105" s="46">
         <f>SUM(D91:D104)</f>
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="E105" s="158"/>
       <c r="F105" s="220"/>
@@ -10465,14 +10387,14 @@
       <c r="H107" s="220"/>
       <c r="I107" s="220"/>
       <c r="J107" s="220"/>
-      <c r="K107" s="297" t="s">
+      <c r="K107" s="306" t="s">
         <v>43</v>
       </c>
-      <c r="L107" s="298"/>
-      <c r="M107" s="299"/>
+      <c r="L107" s="307"/>
+      <c r="M107" s="308"/>
       <c r="N107" s="68">
         <f>D108</f>
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="O107" s="176"/>
       <c r="P107" s="202"/>
@@ -10497,14 +10419,14 @@
       <c r="AI107" s="59"/>
     </row>
     <row r="108" spans="1:252" s="60" customFormat="1" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="291" t="s">
+      <c r="A108" s="300" t="s">
         <v>43</v>
       </c>
-      <c r="B108" s="292"/>
-      <c r="C108" s="293"/>
+      <c r="B108" s="301"/>
+      <c r="C108" s="302"/>
       <c r="D108" s="69">
         <f>SUM(D105,D87,D69,D51,D33)</f>
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="E108" s="158"/>
       <c r="F108" s="220"/>
@@ -10512,11 +10434,11 @@
       <c r="H108" s="220"/>
       <c r="I108" s="220"/>
       <c r="J108" s="220"/>
-      <c r="K108" s="297" t="s">
+      <c r="K108" s="306" t="s">
         <v>44</v>
       </c>
-      <c r="L108" s="298"/>
-      <c r="M108" s="299"/>
+      <c r="L108" s="307"/>
+      <c r="M108" s="308"/>
       <c r="N108" s="68">
         <f>I90</f>
         <v>0</v>
@@ -10554,14 +10476,14 @@
       <c r="H109" s="158"/>
       <c r="I109" s="158"/>
       <c r="J109" s="179"/>
-      <c r="K109" s="307" t="s">
+      <c r="K109" s="288" t="s">
         <v>45</v>
       </c>
-      <c r="L109" s="308"/>
-      <c r="M109" s="309"/>
+      <c r="L109" s="289"/>
+      <c r="M109" s="290"/>
       <c r="N109" s="68">
         <f>N40</f>
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="O109" s="176"/>
       <c r="P109" s="202"/>
@@ -10580,14 +10502,14 @@
       <c r="H110" s="155"/>
       <c r="I110" s="155"/>
       <c r="J110" s="159"/>
-      <c r="K110" s="294" t="s">
+      <c r="K110" s="303" t="s">
         <v>26</v>
       </c>
-      <c r="L110" s="295"/>
-      <c r="M110" s="296"/>
+      <c r="L110" s="304"/>
+      <c r="M110" s="305"/>
       <c r="N110" s="64">
         <f>SUM(N107:N109)</f>
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="O110" s="176"/>
       <c r="P110" s="202"/>
@@ -10620,255 +10542,255 @@
       <c r="V111" s="41"/>
       <c r="W111" s="41"/>
       <c r="X111" s="41"/>
-      <c r="Y111" s="285"/>
-      <c r="Z111" s="285"/>
-      <c r="AA111" s="285"/>
-      <c r="AB111" s="285"/>
-      <c r="AC111" s="285"/>
-      <c r="AD111" s="285"/>
-      <c r="AE111" s="285"/>
-      <c r="AF111" s="285"/>
-      <c r="AG111" s="285"/>
-      <c r="AH111" s="285"/>
-      <c r="AI111" s="285"/>
-      <c r="AJ111" s="285"/>
-      <c r="AK111" s="285"/>
-      <c r="AL111" s="285"/>
-      <c r="AM111" s="285"/>
-      <c r="AN111" s="285"/>
-      <c r="AO111" s="285"/>
-      <c r="AP111" s="285"/>
-      <c r="AQ111" s="285"/>
-      <c r="AR111" s="285"/>
-      <c r="AS111" s="285"/>
-      <c r="AT111" s="285"/>
-      <c r="AU111" s="285"/>
-      <c r="AV111" s="285"/>
-      <c r="AW111" s="285"/>
-      <c r="AX111" s="285"/>
-      <c r="AY111" s="285"/>
-      <c r="AZ111" s="285"/>
-      <c r="BA111" s="284"/>
-      <c r="BB111" s="285"/>
-      <c r="BC111" s="285"/>
-      <c r="BD111" s="285"/>
-      <c r="BE111" s="285"/>
-      <c r="BF111" s="285"/>
-      <c r="BG111" s="285"/>
-      <c r="BH111" s="285"/>
-      <c r="BI111" s="285"/>
-      <c r="BJ111" s="285"/>
-      <c r="BK111" s="285"/>
-      <c r="BL111" s="285"/>
-      <c r="BM111" s="285"/>
-      <c r="BN111" s="285"/>
-      <c r="BO111" s="284"/>
-      <c r="BP111" s="285"/>
-      <c r="BQ111" s="285"/>
-      <c r="BR111" s="285"/>
-      <c r="BS111" s="285"/>
-      <c r="BT111" s="285"/>
-      <c r="BU111" s="285"/>
-      <c r="BV111" s="285"/>
-      <c r="BW111" s="285"/>
-      <c r="BX111" s="285"/>
-      <c r="BY111" s="285"/>
-      <c r="BZ111" s="285"/>
-      <c r="CA111" s="285"/>
-      <c r="CB111" s="285"/>
-      <c r="CC111" s="284"/>
-      <c r="CD111" s="285"/>
-      <c r="CE111" s="285"/>
-      <c r="CF111" s="285"/>
-      <c r="CG111" s="285"/>
-      <c r="CH111" s="285"/>
-      <c r="CI111" s="285"/>
-      <c r="CJ111" s="285"/>
-      <c r="CK111" s="285"/>
-      <c r="CL111" s="285"/>
-      <c r="CM111" s="285"/>
-      <c r="CN111" s="285"/>
-      <c r="CO111" s="285"/>
-      <c r="CP111" s="285"/>
-      <c r="CQ111" s="284"/>
-      <c r="CR111" s="285"/>
-      <c r="CS111" s="285"/>
-      <c r="CT111" s="285"/>
-      <c r="CU111" s="285"/>
-      <c r="CV111" s="285"/>
-      <c r="CW111" s="285"/>
-      <c r="CX111" s="285"/>
-      <c r="CY111" s="285"/>
-      <c r="CZ111" s="285"/>
-      <c r="DA111" s="285"/>
-      <c r="DB111" s="285"/>
-      <c r="DC111" s="285"/>
-      <c r="DD111" s="285"/>
-      <c r="DE111" s="284"/>
-      <c r="DF111" s="285"/>
-      <c r="DG111" s="285"/>
-      <c r="DH111" s="285"/>
-      <c r="DI111" s="285"/>
-      <c r="DJ111" s="285"/>
-      <c r="DK111" s="285"/>
-      <c r="DL111" s="285"/>
-      <c r="DM111" s="285"/>
-      <c r="DN111" s="285"/>
-      <c r="DO111" s="285"/>
-      <c r="DP111" s="285"/>
-      <c r="DQ111" s="285"/>
-      <c r="DR111" s="285"/>
-      <c r="DS111" s="284"/>
-      <c r="DT111" s="285"/>
-      <c r="DU111" s="285"/>
-      <c r="DV111" s="285"/>
-      <c r="DW111" s="285"/>
-      <c r="DX111" s="285"/>
-      <c r="DY111" s="285"/>
-      <c r="DZ111" s="285"/>
-      <c r="EA111" s="285"/>
-      <c r="EB111" s="285"/>
-      <c r="EC111" s="285"/>
-      <c r="ED111" s="285"/>
-      <c r="EE111" s="285"/>
-      <c r="EF111" s="285"/>
-      <c r="EG111" s="284"/>
-      <c r="EH111" s="285"/>
-      <c r="EI111" s="285"/>
-      <c r="EJ111" s="285"/>
-      <c r="EK111" s="285"/>
-      <c r="EL111" s="285"/>
-      <c r="EM111" s="285"/>
-      <c r="EN111" s="285"/>
-      <c r="EO111" s="285"/>
-      <c r="EP111" s="285"/>
-      <c r="EQ111" s="285"/>
-      <c r="ER111" s="285"/>
-      <c r="ES111" s="285"/>
-      <c r="ET111" s="285"/>
-      <c r="EU111" s="284"/>
-      <c r="EV111" s="285"/>
-      <c r="EW111" s="285"/>
-      <c r="EX111" s="285"/>
-      <c r="EY111" s="285"/>
-      <c r="EZ111" s="285"/>
-      <c r="FA111" s="285"/>
-      <c r="FB111" s="285"/>
-      <c r="FC111" s="285"/>
-      <c r="FD111" s="285"/>
-      <c r="FE111" s="285"/>
-      <c r="FF111" s="285"/>
-      <c r="FG111" s="285"/>
-      <c r="FH111" s="285"/>
-      <c r="FI111" s="284"/>
-      <c r="FJ111" s="285"/>
-      <c r="FK111" s="285"/>
-      <c r="FL111" s="285"/>
-      <c r="FM111" s="285"/>
-      <c r="FN111" s="285"/>
-      <c r="FO111" s="285"/>
-      <c r="FP111" s="285"/>
-      <c r="FQ111" s="285"/>
-      <c r="FR111" s="285"/>
-      <c r="FS111" s="285"/>
-      <c r="FT111" s="285"/>
-      <c r="FU111" s="285"/>
-      <c r="FV111" s="285"/>
-      <c r="FW111" s="284"/>
-      <c r="FX111" s="285"/>
-      <c r="FY111" s="285"/>
-      <c r="FZ111" s="285"/>
-      <c r="GA111" s="285"/>
-      <c r="GB111" s="285"/>
-      <c r="GC111" s="285"/>
-      <c r="GD111" s="285"/>
-      <c r="GE111" s="285"/>
-      <c r="GF111" s="285"/>
-      <c r="GG111" s="285"/>
-      <c r="GH111" s="285"/>
-      <c r="GI111" s="285"/>
-      <c r="GJ111" s="285"/>
-      <c r="GK111" s="284"/>
-      <c r="GL111" s="285"/>
-      <c r="GM111" s="285"/>
-      <c r="GN111" s="285"/>
-      <c r="GO111" s="285"/>
-      <c r="GP111" s="285"/>
-      <c r="GQ111" s="285"/>
-      <c r="GR111" s="285"/>
-      <c r="GS111" s="285"/>
-      <c r="GT111" s="285"/>
-      <c r="GU111" s="285"/>
-      <c r="GV111" s="285"/>
-      <c r="GW111" s="285"/>
-      <c r="GX111" s="285"/>
-      <c r="GY111" s="284"/>
-      <c r="GZ111" s="285"/>
-      <c r="HA111" s="285"/>
-      <c r="HB111" s="285"/>
-      <c r="HC111" s="285"/>
-      <c r="HD111" s="285"/>
-      <c r="HE111" s="285"/>
-      <c r="HF111" s="285"/>
-      <c r="HG111" s="285"/>
-      <c r="HH111" s="285"/>
-      <c r="HI111" s="285"/>
-      <c r="HJ111" s="285"/>
-      <c r="HK111" s="285"/>
-      <c r="HL111" s="285"/>
-      <c r="HM111" s="284"/>
-      <c r="HN111" s="285"/>
-      <c r="HO111" s="285"/>
-      <c r="HP111" s="285"/>
-      <c r="HQ111" s="285"/>
-      <c r="HR111" s="285"/>
-      <c r="HS111" s="285"/>
-      <c r="HT111" s="285"/>
-      <c r="HU111" s="285"/>
-      <c r="HV111" s="285"/>
-      <c r="HW111" s="285"/>
-      <c r="HX111" s="285"/>
-      <c r="HY111" s="285"/>
-      <c r="HZ111" s="285"/>
-      <c r="IA111" s="284"/>
-      <c r="IB111" s="285"/>
-      <c r="IC111" s="285"/>
-      <c r="ID111" s="285"/>
-      <c r="IE111" s="285"/>
-      <c r="IF111" s="285"/>
-      <c r="IG111" s="285"/>
-      <c r="IH111" s="285"/>
-      <c r="II111" s="285"/>
-      <c r="IJ111" s="285"/>
-      <c r="IK111" s="285"/>
-      <c r="IL111" s="285"/>
-      <c r="IM111" s="285"/>
-      <c r="IN111" s="285"/>
-      <c r="IO111" s="284"/>
-      <c r="IP111" s="285"/>
-      <c r="IQ111" s="285"/>
-      <c r="IR111" s="285"/>
+      <c r="Y111" s="298"/>
+      <c r="Z111" s="298"/>
+      <c r="AA111" s="298"/>
+      <c r="AB111" s="298"/>
+      <c r="AC111" s="298"/>
+      <c r="AD111" s="298"/>
+      <c r="AE111" s="298"/>
+      <c r="AF111" s="298"/>
+      <c r="AG111" s="298"/>
+      <c r="AH111" s="298"/>
+      <c r="AI111" s="298"/>
+      <c r="AJ111" s="298"/>
+      <c r="AK111" s="298"/>
+      <c r="AL111" s="298"/>
+      <c r="AM111" s="298"/>
+      <c r="AN111" s="298"/>
+      <c r="AO111" s="298"/>
+      <c r="AP111" s="298"/>
+      <c r="AQ111" s="298"/>
+      <c r="AR111" s="298"/>
+      <c r="AS111" s="298"/>
+      <c r="AT111" s="298"/>
+      <c r="AU111" s="298"/>
+      <c r="AV111" s="298"/>
+      <c r="AW111" s="298"/>
+      <c r="AX111" s="298"/>
+      <c r="AY111" s="298"/>
+      <c r="AZ111" s="298"/>
+      <c r="BA111" s="297"/>
+      <c r="BB111" s="298"/>
+      <c r="BC111" s="298"/>
+      <c r="BD111" s="298"/>
+      <c r="BE111" s="298"/>
+      <c r="BF111" s="298"/>
+      <c r="BG111" s="298"/>
+      <c r="BH111" s="298"/>
+      <c r="BI111" s="298"/>
+      <c r="BJ111" s="298"/>
+      <c r="BK111" s="298"/>
+      <c r="BL111" s="298"/>
+      <c r="BM111" s="298"/>
+      <c r="BN111" s="298"/>
+      <c r="BO111" s="297"/>
+      <c r="BP111" s="298"/>
+      <c r="BQ111" s="298"/>
+      <c r="BR111" s="298"/>
+      <c r="BS111" s="298"/>
+      <c r="BT111" s="298"/>
+      <c r="BU111" s="298"/>
+      <c r="BV111" s="298"/>
+      <c r="BW111" s="298"/>
+      <c r="BX111" s="298"/>
+      <c r="BY111" s="298"/>
+      <c r="BZ111" s="298"/>
+      <c r="CA111" s="298"/>
+      <c r="CB111" s="298"/>
+      <c r="CC111" s="297"/>
+      <c r="CD111" s="298"/>
+      <c r="CE111" s="298"/>
+      <c r="CF111" s="298"/>
+      <c r="CG111" s="298"/>
+      <c r="CH111" s="298"/>
+      <c r="CI111" s="298"/>
+      <c r="CJ111" s="298"/>
+      <c r="CK111" s="298"/>
+      <c r="CL111" s="298"/>
+      <c r="CM111" s="298"/>
+      <c r="CN111" s="298"/>
+      <c r="CO111" s="298"/>
+      <c r="CP111" s="298"/>
+      <c r="CQ111" s="297"/>
+      <c r="CR111" s="298"/>
+      <c r="CS111" s="298"/>
+      <c r="CT111" s="298"/>
+      <c r="CU111" s="298"/>
+      <c r="CV111" s="298"/>
+      <c r="CW111" s="298"/>
+      <c r="CX111" s="298"/>
+      <c r="CY111" s="298"/>
+      <c r="CZ111" s="298"/>
+      <c r="DA111" s="298"/>
+      <c r="DB111" s="298"/>
+      <c r="DC111" s="298"/>
+      <c r="DD111" s="298"/>
+      <c r="DE111" s="297"/>
+      <c r="DF111" s="298"/>
+      <c r="DG111" s="298"/>
+      <c r="DH111" s="298"/>
+      <c r="DI111" s="298"/>
+      <c r="DJ111" s="298"/>
+      <c r="DK111" s="298"/>
+      <c r="DL111" s="298"/>
+      <c r="DM111" s="298"/>
+      <c r="DN111" s="298"/>
+      <c r="DO111" s="298"/>
+      <c r="DP111" s="298"/>
+      <c r="DQ111" s="298"/>
+      <c r="DR111" s="298"/>
+      <c r="DS111" s="297"/>
+      <c r="DT111" s="298"/>
+      <c r="DU111" s="298"/>
+      <c r="DV111" s="298"/>
+      <c r="DW111" s="298"/>
+      <c r="DX111" s="298"/>
+      <c r="DY111" s="298"/>
+      <c r="DZ111" s="298"/>
+      <c r="EA111" s="298"/>
+      <c r="EB111" s="298"/>
+      <c r="EC111" s="298"/>
+      <c r="ED111" s="298"/>
+      <c r="EE111" s="298"/>
+      <c r="EF111" s="298"/>
+      <c r="EG111" s="297"/>
+      <c r="EH111" s="298"/>
+      <c r="EI111" s="298"/>
+      <c r="EJ111" s="298"/>
+      <c r="EK111" s="298"/>
+      <c r="EL111" s="298"/>
+      <c r="EM111" s="298"/>
+      <c r="EN111" s="298"/>
+      <c r="EO111" s="298"/>
+      <c r="EP111" s="298"/>
+      <c r="EQ111" s="298"/>
+      <c r="ER111" s="298"/>
+      <c r="ES111" s="298"/>
+      <c r="ET111" s="298"/>
+      <c r="EU111" s="297"/>
+      <c r="EV111" s="298"/>
+      <c r="EW111" s="298"/>
+      <c r="EX111" s="298"/>
+      <c r="EY111" s="298"/>
+      <c r="EZ111" s="298"/>
+      <c r="FA111" s="298"/>
+      <c r="FB111" s="298"/>
+      <c r="FC111" s="298"/>
+      <c r="FD111" s="298"/>
+      <c r="FE111" s="298"/>
+      <c r="FF111" s="298"/>
+      <c r="FG111" s="298"/>
+      <c r="FH111" s="298"/>
+      <c r="FI111" s="297"/>
+      <c r="FJ111" s="298"/>
+      <c r="FK111" s="298"/>
+      <c r="FL111" s="298"/>
+      <c r="FM111" s="298"/>
+      <c r="FN111" s="298"/>
+      <c r="FO111" s="298"/>
+      <c r="FP111" s="298"/>
+      <c r="FQ111" s="298"/>
+      <c r="FR111" s="298"/>
+      <c r="FS111" s="298"/>
+      <c r="FT111" s="298"/>
+      <c r="FU111" s="298"/>
+      <c r="FV111" s="298"/>
+      <c r="FW111" s="297"/>
+      <c r="FX111" s="298"/>
+      <c r="FY111" s="298"/>
+      <c r="FZ111" s="298"/>
+      <c r="GA111" s="298"/>
+      <c r="GB111" s="298"/>
+      <c r="GC111" s="298"/>
+      <c r="GD111" s="298"/>
+      <c r="GE111" s="298"/>
+      <c r="GF111" s="298"/>
+      <c r="GG111" s="298"/>
+      <c r="GH111" s="298"/>
+      <c r="GI111" s="298"/>
+      <c r="GJ111" s="298"/>
+      <c r="GK111" s="297"/>
+      <c r="GL111" s="298"/>
+      <c r="GM111" s="298"/>
+      <c r="GN111" s="298"/>
+      <c r="GO111" s="298"/>
+      <c r="GP111" s="298"/>
+      <c r="GQ111" s="298"/>
+      <c r="GR111" s="298"/>
+      <c r="GS111" s="298"/>
+      <c r="GT111" s="298"/>
+      <c r="GU111" s="298"/>
+      <c r="GV111" s="298"/>
+      <c r="GW111" s="298"/>
+      <c r="GX111" s="298"/>
+      <c r="GY111" s="297"/>
+      <c r="GZ111" s="298"/>
+      <c r="HA111" s="298"/>
+      <c r="HB111" s="298"/>
+      <c r="HC111" s="298"/>
+      <c r="HD111" s="298"/>
+      <c r="HE111" s="298"/>
+      <c r="HF111" s="298"/>
+      <c r="HG111" s="298"/>
+      <c r="HH111" s="298"/>
+      <c r="HI111" s="298"/>
+      <c r="HJ111" s="298"/>
+      <c r="HK111" s="298"/>
+      <c r="HL111" s="298"/>
+      <c r="HM111" s="297"/>
+      <c r="HN111" s="298"/>
+      <c r="HO111" s="298"/>
+      <c r="HP111" s="298"/>
+      <c r="HQ111" s="298"/>
+      <c r="HR111" s="298"/>
+      <c r="HS111" s="298"/>
+      <c r="HT111" s="298"/>
+      <c r="HU111" s="298"/>
+      <c r="HV111" s="298"/>
+      <c r="HW111" s="298"/>
+      <c r="HX111" s="298"/>
+      <c r="HY111" s="298"/>
+      <c r="HZ111" s="298"/>
+      <c r="IA111" s="297"/>
+      <c r="IB111" s="298"/>
+      <c r="IC111" s="298"/>
+      <c r="ID111" s="298"/>
+      <c r="IE111" s="298"/>
+      <c r="IF111" s="298"/>
+      <c r="IG111" s="298"/>
+      <c r="IH111" s="298"/>
+      <c r="II111" s="298"/>
+      <c r="IJ111" s="298"/>
+      <c r="IK111" s="298"/>
+      <c r="IL111" s="298"/>
+      <c r="IM111" s="298"/>
+      <c r="IN111" s="298"/>
+      <c r="IO111" s="297"/>
+      <c r="IP111" s="298"/>
+      <c r="IQ111" s="298"/>
+      <c r="IR111" s="298"/>
     </row>
     <row r="112" spans="1:252" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="301"/>
-      <c r="B112" s="301"/>
-      <c r="C112" s="301"/>
-      <c r="D112" s="301"/>
-      <c r="E112" s="301"/>
-      <c r="F112" s="301"/>
-      <c r="G112" s="301"/>
-      <c r="H112" s="301"/>
-      <c r="I112" s="301"/>
-      <c r="J112" s="301"/>
-      <c r="K112" s="301"/>
-      <c r="L112" s="301"/>
-      <c r="M112" s="301"/>
-      <c r="N112" s="301"/>
-      <c r="O112" s="301"/>
-      <c r="P112" s="301"/>
-      <c r="Q112" s="301"/>
-      <c r="R112" s="301"/>
-      <c r="S112" s="301"/>
+      <c r="A112" s="284"/>
+      <c r="B112" s="284"/>
+      <c r="C112" s="284"/>
+      <c r="D112" s="284"/>
+      <c r="E112" s="284"/>
+      <c r="F112" s="284"/>
+      <c r="G112" s="284"/>
+      <c r="H112" s="284"/>
+      <c r="I112" s="284"/>
+      <c r="J112" s="284"/>
+      <c r="K112" s="284"/>
+      <c r="L112" s="284"/>
+      <c r="M112" s="284"/>
+      <c r="N112" s="284"/>
+      <c r="O112" s="284"/>
+      <c r="P112" s="284"/>
+      <c r="Q112" s="284"/>
+      <c r="R112" s="284"/>
+      <c r="S112" s="284"/>
       <c r="AJ112" s="3"/>
       <c r="AK112" s="3"/>
       <c r="AL112" s="3"/>
@@ -10914,307 +10836,364 @@
       <c r="H114" s="80"/>
       <c r="I114" s="80"/>
       <c r="J114" s="80"/>
-      <c r="O114" s="285"/>
-      <c r="P114" s="285"/>
-      <c r="Q114" s="285"/>
-      <c r="R114" s="285"/>
-      <c r="S114" s="285"/>
-      <c r="T114" s="285"/>
-      <c r="U114" s="285"/>
-      <c r="V114" s="285"/>
-      <c r="W114" s="285"/>
-      <c r="X114" s="285"/>
-      <c r="Y114" s="285"/>
-      <c r="Z114" s="285"/>
-      <c r="AA114" s="285"/>
-      <c r="AB114" s="285"/>
-      <c r="AC114" s="285"/>
-      <c r="AD114" s="285"/>
-      <c r="AE114" s="285"/>
-      <c r="AF114" s="285"/>
-      <c r="AG114" s="285"/>
-      <c r="AH114" s="285"/>
-      <c r="AI114" s="285"/>
-      <c r="AJ114" s="285"/>
-      <c r="AK114" s="285"/>
-      <c r="AL114" s="285"/>
-      <c r="AM114" s="285"/>
-      <c r="AN114" s="285"/>
-      <c r="AO114" s="285"/>
-      <c r="AP114" s="285"/>
-      <c r="AQ114" s="285"/>
-      <c r="AR114" s="285"/>
-      <c r="AS114" s="285"/>
-      <c r="AT114" s="285"/>
-      <c r="AU114" s="285"/>
-      <c r="AV114" s="285"/>
-      <c r="AW114" s="285"/>
-      <c r="AX114" s="285"/>
-      <c r="AY114" s="285"/>
-      <c r="AZ114" s="285"/>
-      <c r="BA114" s="284"/>
-      <c r="BB114" s="285"/>
-      <c r="BC114" s="285"/>
-      <c r="BD114" s="285"/>
-      <c r="BE114" s="285"/>
-      <c r="BF114" s="285"/>
-      <c r="BG114" s="285"/>
-      <c r="BH114" s="285"/>
-      <c r="BI114" s="285"/>
-      <c r="BJ114" s="285"/>
-      <c r="BK114" s="285"/>
-      <c r="BL114" s="285"/>
-      <c r="BM114" s="285"/>
-      <c r="BN114" s="285"/>
-      <c r="BO114" s="284"/>
-      <c r="BP114" s="285"/>
-      <c r="BQ114" s="285"/>
-      <c r="BR114" s="285"/>
-      <c r="BS114" s="285"/>
-      <c r="BT114" s="285"/>
-      <c r="BU114" s="285"/>
-      <c r="BV114" s="285"/>
-      <c r="BW114" s="285"/>
-      <c r="BX114" s="285"/>
-      <c r="BY114" s="285"/>
-      <c r="BZ114" s="285"/>
-      <c r="CA114" s="285"/>
-      <c r="CB114" s="285"/>
-      <c r="CC114" s="284"/>
-      <c r="CD114" s="285"/>
-      <c r="CE114" s="285"/>
-      <c r="CF114" s="285"/>
-      <c r="CG114" s="285"/>
-      <c r="CH114" s="285"/>
-      <c r="CI114" s="285"/>
-      <c r="CJ114" s="285"/>
-      <c r="CK114" s="285"/>
-      <c r="CL114" s="285"/>
-      <c r="CM114" s="285"/>
-      <c r="CN114" s="285"/>
-      <c r="CO114" s="285"/>
-      <c r="CP114" s="285"/>
-      <c r="CQ114" s="284"/>
-      <c r="CR114" s="285"/>
-      <c r="CS114" s="285"/>
-      <c r="CT114" s="285"/>
-      <c r="CU114" s="285"/>
-      <c r="CV114" s="285"/>
-      <c r="CW114" s="285"/>
-      <c r="CX114" s="285"/>
-      <c r="CY114" s="285"/>
-      <c r="CZ114" s="285"/>
-      <c r="DA114" s="285"/>
-      <c r="DB114" s="285"/>
-      <c r="DC114" s="285"/>
-      <c r="DD114" s="285"/>
-      <c r="DE114" s="284"/>
-      <c r="DF114" s="285"/>
-      <c r="DG114" s="285"/>
-      <c r="DH114" s="285"/>
-      <c r="DI114" s="285"/>
-      <c r="DJ114" s="285"/>
-      <c r="DK114" s="285"/>
-      <c r="DL114" s="285"/>
-      <c r="DM114" s="285"/>
-      <c r="DN114" s="285"/>
-      <c r="DO114" s="285"/>
-      <c r="DP114" s="285"/>
-      <c r="DQ114" s="285"/>
-      <c r="DR114" s="285"/>
-      <c r="DS114" s="284"/>
-      <c r="DT114" s="285"/>
-      <c r="DU114" s="285"/>
-      <c r="DV114" s="285"/>
-      <c r="DW114" s="285"/>
-      <c r="DX114" s="285"/>
-      <c r="DY114" s="285"/>
-      <c r="DZ114" s="285"/>
-      <c r="EA114" s="285"/>
-      <c r="EB114" s="285"/>
-      <c r="EC114" s="285"/>
-      <c r="ED114" s="285"/>
-      <c r="EE114" s="285"/>
-      <c r="EF114" s="285"/>
-      <c r="EG114" s="284"/>
-      <c r="EH114" s="285"/>
-      <c r="EI114" s="285"/>
-      <c r="EJ114" s="285"/>
-      <c r="EK114" s="285"/>
-      <c r="EL114" s="285"/>
-      <c r="EM114" s="285"/>
-      <c r="EN114" s="285"/>
-      <c r="EO114" s="285"/>
-      <c r="EP114" s="285"/>
-      <c r="EQ114" s="285"/>
-      <c r="ER114" s="285"/>
-      <c r="ES114" s="285"/>
-      <c r="ET114" s="285"/>
-      <c r="EU114" s="284"/>
-      <c r="EV114" s="285"/>
-      <c r="EW114" s="285"/>
-      <c r="EX114" s="285"/>
-      <c r="EY114" s="285"/>
-      <c r="EZ114" s="285"/>
-      <c r="FA114" s="285"/>
-      <c r="FB114" s="285"/>
-      <c r="FC114" s="285"/>
-      <c r="FD114" s="285"/>
-      <c r="FE114" s="285"/>
-      <c r="FF114" s="285"/>
-      <c r="FG114" s="285"/>
-      <c r="FH114" s="285"/>
-      <c r="FI114" s="284"/>
-      <c r="FJ114" s="285"/>
-      <c r="FK114" s="285"/>
-      <c r="FL114" s="285"/>
-      <c r="FM114" s="285"/>
-      <c r="FN114" s="285"/>
-      <c r="FO114" s="285"/>
-      <c r="FP114" s="285"/>
-      <c r="FQ114" s="285"/>
-      <c r="FR114" s="285"/>
-      <c r="FS114" s="285"/>
-      <c r="FT114" s="285"/>
-      <c r="FU114" s="285"/>
-      <c r="FV114" s="285"/>
-      <c r="FW114" s="284"/>
-      <c r="FX114" s="285"/>
-      <c r="FY114" s="285"/>
-      <c r="FZ114" s="285"/>
-      <c r="GA114" s="285"/>
-      <c r="GB114" s="285"/>
-      <c r="GC114" s="285"/>
-      <c r="GD114" s="285"/>
-      <c r="GE114" s="285"/>
-      <c r="GF114" s="285"/>
-      <c r="GG114" s="285"/>
-      <c r="GH114" s="285"/>
-      <c r="GI114" s="285"/>
-      <c r="GJ114" s="285"/>
-      <c r="GK114" s="284"/>
-      <c r="GL114" s="285"/>
-      <c r="GM114" s="285"/>
-      <c r="GN114" s="285"/>
-      <c r="GO114" s="285"/>
-      <c r="GP114" s="285"/>
-      <c r="GQ114" s="285"/>
-      <c r="GR114" s="285"/>
-      <c r="GS114" s="285"/>
-      <c r="GT114" s="285"/>
-      <c r="GU114" s="285"/>
-      <c r="GV114" s="285"/>
-      <c r="GW114" s="285"/>
-      <c r="GX114" s="285"/>
-      <c r="GY114" s="284"/>
-      <c r="GZ114" s="285"/>
-      <c r="HA114" s="285"/>
-      <c r="HB114" s="285"/>
-      <c r="HC114" s="285"/>
-      <c r="HD114" s="285"/>
-      <c r="HE114" s="285"/>
-      <c r="HF114" s="285"/>
-      <c r="HG114" s="285"/>
-      <c r="HH114" s="285"/>
-      <c r="HI114" s="285"/>
-      <c r="HJ114" s="285"/>
-      <c r="HK114" s="285"/>
-      <c r="HL114" s="285"/>
-      <c r="HM114" s="284"/>
-      <c r="HN114" s="285"/>
-      <c r="HO114" s="285"/>
-      <c r="HP114" s="285"/>
-      <c r="HQ114" s="285"/>
-      <c r="HR114" s="285"/>
-      <c r="HS114" s="285"/>
-      <c r="HT114" s="285"/>
-      <c r="HU114" s="285"/>
-      <c r="HV114" s="285"/>
-      <c r="HW114" s="285"/>
-      <c r="HX114" s="285"/>
-      <c r="HY114" s="285"/>
-      <c r="HZ114" s="285"/>
-      <c r="IA114" s="284"/>
-      <c r="IB114" s="285"/>
-      <c r="IC114" s="285"/>
-      <c r="ID114" s="285"/>
-      <c r="IE114" s="285"/>
-      <c r="IF114" s="285"/>
-      <c r="IG114" s="285"/>
-      <c r="IH114" s="285"/>
-      <c r="II114" s="285"/>
-      <c r="IJ114" s="285"/>
-      <c r="IK114" s="285"/>
-      <c r="IL114" s="285"/>
-      <c r="IM114" s="285"/>
-      <c r="IN114" s="285"/>
-      <c r="IO114" s="284"/>
-      <c r="IP114" s="285"/>
-      <c r="IQ114" s="285"/>
-      <c r="IR114" s="285"/>
+      <c r="O114" s="298"/>
+      <c r="P114" s="298"/>
+      <c r="Q114" s="298"/>
+      <c r="R114" s="298"/>
+      <c r="S114" s="298"/>
+      <c r="T114" s="298"/>
+      <c r="U114" s="298"/>
+      <c r="V114" s="298"/>
+      <c r="W114" s="298"/>
+      <c r="X114" s="298"/>
+      <c r="Y114" s="298"/>
+      <c r="Z114" s="298"/>
+      <c r="AA114" s="298"/>
+      <c r="AB114" s="298"/>
+      <c r="AC114" s="298"/>
+      <c r="AD114" s="298"/>
+      <c r="AE114" s="298"/>
+      <c r="AF114" s="298"/>
+      <c r="AG114" s="298"/>
+      <c r="AH114" s="298"/>
+      <c r="AI114" s="298"/>
+      <c r="AJ114" s="298"/>
+      <c r="AK114" s="298"/>
+      <c r="AL114" s="298"/>
+      <c r="AM114" s="298"/>
+      <c r="AN114" s="298"/>
+      <c r="AO114" s="298"/>
+      <c r="AP114" s="298"/>
+      <c r="AQ114" s="298"/>
+      <c r="AR114" s="298"/>
+      <c r="AS114" s="298"/>
+      <c r="AT114" s="298"/>
+      <c r="AU114" s="298"/>
+      <c r="AV114" s="298"/>
+      <c r="AW114" s="298"/>
+      <c r="AX114" s="298"/>
+      <c r="AY114" s="298"/>
+      <c r="AZ114" s="298"/>
+      <c r="BA114" s="297"/>
+      <c r="BB114" s="298"/>
+      <c r="BC114" s="298"/>
+      <c r="BD114" s="298"/>
+      <c r="BE114" s="298"/>
+      <c r="BF114" s="298"/>
+      <c r="BG114" s="298"/>
+      <c r="BH114" s="298"/>
+      <c r="BI114" s="298"/>
+      <c r="BJ114" s="298"/>
+      <c r="BK114" s="298"/>
+      <c r="BL114" s="298"/>
+      <c r="BM114" s="298"/>
+      <c r="BN114" s="298"/>
+      <c r="BO114" s="297"/>
+      <c r="BP114" s="298"/>
+      <c r="BQ114" s="298"/>
+      <c r="BR114" s="298"/>
+      <c r="BS114" s="298"/>
+      <c r="BT114" s="298"/>
+      <c r="BU114" s="298"/>
+      <c r="BV114" s="298"/>
+      <c r="BW114" s="298"/>
+      <c r="BX114" s="298"/>
+      <c r="BY114" s="298"/>
+      <c r="BZ114" s="298"/>
+      <c r="CA114" s="298"/>
+      <c r="CB114" s="298"/>
+      <c r="CC114" s="297"/>
+      <c r="CD114" s="298"/>
+      <c r="CE114" s="298"/>
+      <c r="CF114" s="298"/>
+      <c r="CG114" s="298"/>
+      <c r="CH114" s="298"/>
+      <c r="CI114" s="298"/>
+      <c r="CJ114" s="298"/>
+      <c r="CK114" s="298"/>
+      <c r="CL114" s="298"/>
+      <c r="CM114" s="298"/>
+      <c r="CN114" s="298"/>
+      <c r="CO114" s="298"/>
+      <c r="CP114" s="298"/>
+      <c r="CQ114" s="297"/>
+      <c r="CR114" s="298"/>
+      <c r="CS114" s="298"/>
+      <c r="CT114" s="298"/>
+      <c r="CU114" s="298"/>
+      <c r="CV114" s="298"/>
+      <c r="CW114" s="298"/>
+      <c r="CX114" s="298"/>
+      <c r="CY114" s="298"/>
+      <c r="CZ114" s="298"/>
+      <c r="DA114" s="298"/>
+      <c r="DB114" s="298"/>
+      <c r="DC114" s="298"/>
+      <c r="DD114" s="298"/>
+      <c r="DE114" s="297"/>
+      <c r="DF114" s="298"/>
+      <c r="DG114" s="298"/>
+      <c r="DH114" s="298"/>
+      <c r="DI114" s="298"/>
+      <c r="DJ114" s="298"/>
+      <c r="DK114" s="298"/>
+      <c r="DL114" s="298"/>
+      <c r="DM114" s="298"/>
+      <c r="DN114" s="298"/>
+      <c r="DO114" s="298"/>
+      <c r="DP114" s="298"/>
+      <c r="DQ114" s="298"/>
+      <c r="DR114" s="298"/>
+      <c r="DS114" s="297"/>
+      <c r="DT114" s="298"/>
+      <c r="DU114" s="298"/>
+      <c r="DV114" s="298"/>
+      <c r="DW114" s="298"/>
+      <c r="DX114" s="298"/>
+      <c r="DY114" s="298"/>
+      <c r="DZ114" s="298"/>
+      <c r="EA114" s="298"/>
+      <c r="EB114" s="298"/>
+      <c r="EC114" s="298"/>
+      <c r="ED114" s="298"/>
+      <c r="EE114" s="298"/>
+      <c r="EF114" s="298"/>
+      <c r="EG114" s="297"/>
+      <c r="EH114" s="298"/>
+      <c r="EI114" s="298"/>
+      <c r="EJ114" s="298"/>
+      <c r="EK114" s="298"/>
+      <c r="EL114" s="298"/>
+      <c r="EM114" s="298"/>
+      <c r="EN114" s="298"/>
+      <c r="EO114" s="298"/>
+      <c r="EP114" s="298"/>
+      <c r="EQ114" s="298"/>
+      <c r="ER114" s="298"/>
+      <c r="ES114" s="298"/>
+      <c r="ET114" s="298"/>
+      <c r="EU114" s="297"/>
+      <c r="EV114" s="298"/>
+      <c r="EW114" s="298"/>
+      <c r="EX114" s="298"/>
+      <c r="EY114" s="298"/>
+      <c r="EZ114" s="298"/>
+      <c r="FA114" s="298"/>
+      <c r="FB114" s="298"/>
+      <c r="FC114" s="298"/>
+      <c r="FD114" s="298"/>
+      <c r="FE114" s="298"/>
+      <c r="FF114" s="298"/>
+      <c r="FG114" s="298"/>
+      <c r="FH114" s="298"/>
+      <c r="FI114" s="297"/>
+      <c r="FJ114" s="298"/>
+      <c r="FK114" s="298"/>
+      <c r="FL114" s="298"/>
+      <c r="FM114" s="298"/>
+      <c r="FN114" s="298"/>
+      <c r="FO114" s="298"/>
+      <c r="FP114" s="298"/>
+      <c r="FQ114" s="298"/>
+      <c r="FR114" s="298"/>
+      <c r="FS114" s="298"/>
+      <c r="FT114" s="298"/>
+      <c r="FU114" s="298"/>
+      <c r="FV114" s="298"/>
+      <c r="FW114" s="297"/>
+      <c r="FX114" s="298"/>
+      <c r="FY114" s="298"/>
+      <c r="FZ114" s="298"/>
+      <c r="GA114" s="298"/>
+      <c r="GB114" s="298"/>
+      <c r="GC114" s="298"/>
+      <c r="GD114" s="298"/>
+      <c r="GE114" s="298"/>
+      <c r="GF114" s="298"/>
+      <c r="GG114" s="298"/>
+      <c r="GH114" s="298"/>
+      <c r="GI114" s="298"/>
+      <c r="GJ114" s="298"/>
+      <c r="GK114" s="297"/>
+      <c r="GL114" s="298"/>
+      <c r="GM114" s="298"/>
+      <c r="GN114" s="298"/>
+      <c r="GO114" s="298"/>
+      <c r="GP114" s="298"/>
+      <c r="GQ114" s="298"/>
+      <c r="GR114" s="298"/>
+      <c r="GS114" s="298"/>
+      <c r="GT114" s="298"/>
+      <c r="GU114" s="298"/>
+      <c r="GV114" s="298"/>
+      <c r="GW114" s="298"/>
+      <c r="GX114" s="298"/>
+      <c r="GY114" s="297"/>
+      <c r="GZ114" s="298"/>
+      <c r="HA114" s="298"/>
+      <c r="HB114" s="298"/>
+      <c r="HC114" s="298"/>
+      <c r="HD114" s="298"/>
+      <c r="HE114" s="298"/>
+      <c r="HF114" s="298"/>
+      <c r="HG114" s="298"/>
+      <c r="HH114" s="298"/>
+      <c r="HI114" s="298"/>
+      <c r="HJ114" s="298"/>
+      <c r="HK114" s="298"/>
+      <c r="HL114" s="298"/>
+      <c r="HM114" s="297"/>
+      <c r="HN114" s="298"/>
+      <c r="HO114" s="298"/>
+      <c r="HP114" s="298"/>
+      <c r="HQ114" s="298"/>
+      <c r="HR114" s="298"/>
+      <c r="HS114" s="298"/>
+      <c r="HT114" s="298"/>
+      <c r="HU114" s="298"/>
+      <c r="HV114" s="298"/>
+      <c r="HW114" s="298"/>
+      <c r="HX114" s="298"/>
+      <c r="HY114" s="298"/>
+      <c r="HZ114" s="298"/>
+      <c r="IA114" s="297"/>
+      <c r="IB114" s="298"/>
+      <c r="IC114" s="298"/>
+      <c r="ID114" s="298"/>
+      <c r="IE114" s="298"/>
+      <c r="IF114" s="298"/>
+      <c r="IG114" s="298"/>
+      <c r="IH114" s="298"/>
+      <c r="II114" s="298"/>
+      <c r="IJ114" s="298"/>
+      <c r="IK114" s="298"/>
+      <c r="IL114" s="298"/>
+      <c r="IM114" s="298"/>
+      <c r="IN114" s="298"/>
+      <c r="IO114" s="297"/>
+      <c r="IP114" s="298"/>
+      <c r="IQ114" s="298"/>
+      <c r="IR114" s="298"/>
     </row>
     <row r="115" spans="1:252" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="270" t="s">
+      <c r="A115" s="255" t="s">
         <v>63</v>
       </c>
-      <c r="B115" s="270"/>
-      <c r="C115" s="270"/>
-      <c r="D115" s="270"/>
-      <c r="E115" s="270"/>
-      <c r="F115" s="270"/>
-      <c r="G115" s="270"/>
-      <c r="H115" s="270"/>
-      <c r="I115" s="270"/>
-      <c r="J115" s="270"/>
-      <c r="K115" s="270"/>
-      <c r="L115" s="270"/>
-      <c r="M115" s="270"/>
-      <c r="N115" s="270"/>
+      <c r="B115" s="255"/>
+      <c r="C115" s="255"/>
+      <c r="D115" s="255"/>
+      <c r="E115" s="255"/>
+      <c r="F115" s="255"/>
+      <c r="G115" s="255"/>
+      <c r="H115" s="255"/>
+      <c r="I115" s="255"/>
+      <c r="J115" s="255"/>
+      <c r="K115" s="255"/>
+      <c r="L115" s="255"/>
+      <c r="M115" s="255"/>
+      <c r="N115" s="255"/>
     </row>
     <row r="116" spans="1:252" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="270" t="s">
+      <c r="A116" s="255" t="s">
         <v>64</v>
       </c>
-      <c r="B116" s="270"/>
-      <c r="C116" s="270"/>
-      <c r="D116" s="270"/>
-      <c r="E116" s="270"/>
-      <c r="F116" s="270"/>
-      <c r="G116" s="270"/>
-      <c r="H116" s="270"/>
-      <c r="I116" s="270"/>
-      <c r="J116" s="270"/>
-      <c r="K116" s="270"/>
-      <c r="L116" s="270"/>
-      <c r="M116" s="270"/>
-      <c r="N116" s="270"/>
+      <c r="B116" s="255"/>
+      <c r="C116" s="255"/>
+      <c r="D116" s="255"/>
+      <c r="E116" s="255"/>
+      <c r="F116" s="255"/>
+      <c r="G116" s="255"/>
+      <c r="H116" s="255"/>
+      <c r="I116" s="255"/>
+      <c r="J116" s="255"/>
+      <c r="K116" s="255"/>
+      <c r="L116" s="255"/>
+      <c r="M116" s="255"/>
+      <c r="N116" s="255"/>
     </row>
     <row r="117" spans="1:252" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="270" t="s">
+      <c r="A117" s="255" t="s">
         <v>65</v>
       </c>
-      <c r="B117" s="270"/>
-      <c r="C117" s="270"/>
-      <c r="D117" s="270"/>
-      <c r="E117" s="270"/>
-      <c r="F117" s="270"/>
-      <c r="G117" s="270"/>
-      <c r="H117" s="270"/>
-      <c r="I117" s="270"/>
-      <c r="J117" s="270"/>
-      <c r="K117" s="270"/>
-      <c r="L117" s="270"/>
-      <c r="M117" s="270"/>
-      <c r="N117" s="270"/>
+      <c r="B117" s="255"/>
+      <c r="C117" s="255"/>
+      <c r="D117" s="255"/>
+      <c r="E117" s="255"/>
+      <c r="F117" s="255"/>
+      <c r="G117" s="255"/>
+      <c r="H117" s="255"/>
+      <c r="I117" s="255"/>
+      <c r="J117" s="255"/>
+      <c r="K117" s="255"/>
+      <c r="L117" s="255"/>
+      <c r="M117" s="255"/>
+      <c r="N117" s="255"/>
     </row>
   </sheetData>
   <sheetProtection password="C691" sheet="1" selectLockedCells="1"/>
   <mergeCells count="83">
-    <mergeCell ref="R28:S29"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S33"/>
+    <mergeCell ref="EG111:ET111"/>
+    <mergeCell ref="EU111:FH111"/>
+    <mergeCell ref="HM111:HZ111"/>
+    <mergeCell ref="IA111:IN111"/>
+    <mergeCell ref="IO111:IR111"/>
+    <mergeCell ref="FI111:FV111"/>
+    <mergeCell ref="FW111:GJ111"/>
+    <mergeCell ref="GK111:GX111"/>
+    <mergeCell ref="GY111:HL111"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S25"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S21"/>
+    <mergeCell ref="A116:N116"/>
+    <mergeCell ref="A117:N117"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="K110:M110"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="A115:N115"/>
+    <mergeCell ref="CC114:CP114"/>
+    <mergeCell ref="AM111:AZ111"/>
+    <mergeCell ref="BA111:BN111"/>
+    <mergeCell ref="BO111:CB111"/>
+    <mergeCell ref="CC111:CP111"/>
+    <mergeCell ref="Y111:AL111"/>
+    <mergeCell ref="EG114:ET114"/>
+    <mergeCell ref="EU114:FH114"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="FI114:FV114"/>
+    <mergeCell ref="FW114:GJ114"/>
+    <mergeCell ref="CQ114:DD114"/>
+    <mergeCell ref="DE114:DR114"/>
+    <mergeCell ref="DS114:EF114"/>
+    <mergeCell ref="Y114:AL114"/>
+    <mergeCell ref="AM114:AZ114"/>
+    <mergeCell ref="BA114:BN114"/>
+    <mergeCell ref="BO114:CB114"/>
+    <mergeCell ref="O114:X114"/>
+    <mergeCell ref="CQ111:DD111"/>
+    <mergeCell ref="DE111:DR111"/>
+    <mergeCell ref="DS111:EF111"/>
+    <mergeCell ref="IO114:IR114"/>
+    <mergeCell ref="GK114:GX114"/>
+    <mergeCell ref="GY114:HL114"/>
+    <mergeCell ref="HM114:HZ114"/>
+    <mergeCell ref="IA114:IN114"/>
     <mergeCell ref="A112:S112"/>
     <mergeCell ref="F53:I53"/>
     <mergeCell ref="K109:M109"/>
@@ -11230,69 +11209,12 @@
     <mergeCell ref="C6:N6"/>
     <mergeCell ref="K25:N25"/>
     <mergeCell ref="K33:N33"/>
-    <mergeCell ref="IO114:IR114"/>
-    <mergeCell ref="GK114:GX114"/>
-    <mergeCell ref="GY114:HL114"/>
-    <mergeCell ref="HM114:HZ114"/>
-    <mergeCell ref="IA114:IN114"/>
-    <mergeCell ref="EG114:ET114"/>
-    <mergeCell ref="EU114:FH114"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="FI114:FV114"/>
-    <mergeCell ref="FW114:GJ114"/>
-    <mergeCell ref="CQ114:DD114"/>
-    <mergeCell ref="DE114:DR114"/>
-    <mergeCell ref="DS114:EF114"/>
-    <mergeCell ref="Y114:AL114"/>
-    <mergeCell ref="AM114:AZ114"/>
-    <mergeCell ref="BA114:BN114"/>
-    <mergeCell ref="BO114:CB114"/>
-    <mergeCell ref="O114:X114"/>
-    <mergeCell ref="A115:N115"/>
-    <mergeCell ref="CC114:CP114"/>
-    <mergeCell ref="AM111:AZ111"/>
-    <mergeCell ref="BA111:BN111"/>
-    <mergeCell ref="BO111:CB111"/>
-    <mergeCell ref="CC111:CP111"/>
-    <mergeCell ref="Y111:AL111"/>
-    <mergeCell ref="A116:N116"/>
-    <mergeCell ref="A117:N117"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="K110:M110"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="K108:M108"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S21"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S25"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="CQ111:DD111"/>
-    <mergeCell ref="DE111:DR111"/>
-    <mergeCell ref="DS111:EF111"/>
-    <mergeCell ref="EG111:ET111"/>
-    <mergeCell ref="EU111:FH111"/>
-    <mergeCell ref="HM111:HZ111"/>
-    <mergeCell ref="IA111:IN111"/>
-    <mergeCell ref="IO111:IR111"/>
-    <mergeCell ref="FI111:FV111"/>
-    <mergeCell ref="FW111:GJ111"/>
-    <mergeCell ref="GK111:GX111"/>
-    <mergeCell ref="GY111:HL111"/>
+    <mergeCell ref="R28:S29"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -11307,7 +11229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Planilha3">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -11329,16 +11251,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -11351,16 +11273,16 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:39" ht="15.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
+      <c r="B2" s="262"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -11373,16 +11295,16 @@
       <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:39" ht="15.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="265" t="s">
+      <c r="A3" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -11418,13 +11340,13 @@
       <c r="A5" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="325"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="H5" s="326"/>
+      <c r="B5" s="327"/>
+      <c r="C5" s="327"/>
+      <c r="D5" s="327"/>
+      <c r="E5" s="327"/>
+      <c r="F5" s="327"/>
+      <c r="G5" s="327"/>
+      <c r="H5" s="328"/>
       <c r="I5" s="81"/>
       <c r="J5" s="89"/>
       <c r="K5" s="6"/>
@@ -11454,16 +11376,16 @@
       <c r="AI5" s="6"/>
     </row>
     <row r="6" spans="1:39" s="82" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="329" t="s">
+      <c r="A6" s="311" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="330"/>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="331"/>
-      <c r="F6" s="331"/>
-      <c r="G6" s="331"/>
-      <c r="H6" s="332"/>
+      <c r="B6" s="312"/>
+      <c r="C6" s="313"/>
+      <c r="D6" s="313"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="313"/>
+      <c r="G6" s="313"/>
+      <c r="H6" s="314"/>
       <c r="I6" s="83"/>
       <c r="J6" s="90"/>
     </row>
@@ -11471,13 +11393,13 @@
       <c r="A7" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="333"/>
-      <c r="C7" s="333"/>
-      <c r="D7" s="333"/>
-      <c r="E7" s="333"/>
-      <c r="F7" s="333"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="334"/>
+      <c r="B7" s="315"/>
+      <c r="C7" s="315"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="316"/>
       <c r="I7" s="83"/>
       <c r="J7" s="90"/>
     </row>
@@ -11496,16 +11418,16 @@
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:39" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="321" t="s">
+      <c r="A9" s="323" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="322"/>
-      <c r="C9" s="322"/>
-      <c r="D9" s="322"/>
-      <c r="E9" s="322"/>
-      <c r="F9" s="322"/>
-      <c r="G9" s="322"/>
-      <c r="H9" s="323"/>
+      <c r="B9" s="324"/>
+      <c r="C9" s="324"/>
+      <c r="D9" s="324"/>
+      <c r="E9" s="324"/>
+      <c r="F9" s="324"/>
+      <c r="G9" s="324"/>
+      <c r="H9" s="325"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -11538,16 +11460,16 @@
       <c r="H11" s="137"/>
     </row>
     <row r="12" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="314" t="s">
+      <c r="A12" s="310" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="314"/>
-      <c r="C12" s="314"/>
-      <c r="D12" s="314"/>
-      <c r="E12" s="314"/>
-      <c r="F12" s="314"/>
-      <c r="G12" s="314"/>
-      <c r="H12" s="314"/>
+      <c r="B12" s="310"/>
+      <c r="C12" s="310"/>
+      <c r="D12" s="310"/>
+      <c r="E12" s="310"/>
+      <c r="F12" s="310"/>
+      <c r="G12" s="310"/>
+      <c r="H12" s="310"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
@@ -11580,16 +11502,16 @@
       <c r="AM13" s="3"/>
     </row>
     <row r="14" spans="1:39" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="269" t="s">
+      <c r="A14" s="267" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="269"/>
-      <c r="C14" s="269"/>
-      <c r="D14" s="269"/>
-      <c r="E14" s="269"/>
-      <c r="F14" s="269"/>
-      <c r="G14" s="269"/>
-      <c r="H14" s="269"/>
+      <c r="B14" s="267"/>
+      <c r="C14" s="267"/>
+      <c r="D14" s="267"/>
+      <c r="E14" s="267"/>
+      <c r="F14" s="267"/>
+      <c r="G14" s="267"/>
+      <c r="H14" s="267"/>
     </row>
     <row r="15" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="226"/>
@@ -11603,27 +11525,27 @@
     </row>
     <row r="16" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="155"/>
-      <c r="B16" s="316" t="s">
+      <c r="B16" s="333" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="315" t="s">
+      <c r="C16" s="332" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="315"/>
+      <c r="D16" s="332"/>
       <c r="E16" s="227" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="227" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="327" t="s">
+      <c r="G16" s="329" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="218"/>
     </row>
     <row r="17" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="155"/>
-      <c r="B17" s="317"/>
+      <c r="B17" s="334"/>
       <c r="C17" s="228" t="s">
         <v>82</v>
       </c>
@@ -11636,19 +11558,19 @@
       <c r="F17" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="328"/>
+      <c r="G17" s="330"/>
       <c r="H17" s="218"/>
     </row>
     <row r="18" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="155"/>
-      <c r="B18" s="318" t="s">
+      <c r="B18" s="317" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="310"/>
-      <c r="D18" s="310"/>
-      <c r="E18" s="310"/>
+      <c r="C18" s="318"/>
+      <c r="D18" s="318"/>
+      <c r="E18" s="318"/>
       <c r="F18" s="319"/>
-      <c r="G18" s="311">
+      <c r="G18" s="321">
         <f>SUM(C18:F19)</f>
         <v>0</v>
       </c>
@@ -11656,24 +11578,24 @@
     </row>
     <row r="19" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="155"/>
-      <c r="B19" s="318"/>
-      <c r="C19" s="310"/>
-      <c r="D19" s="310"/>
-      <c r="E19" s="310"/>
+      <c r="B19" s="317"/>
+      <c r="C19" s="318"/>
+      <c r="D19" s="318"/>
+      <c r="E19" s="318"/>
       <c r="F19" s="320"/>
-      <c r="G19" s="312"/>
+      <c r="G19" s="322"/>
       <c r="H19" s="218"/>
     </row>
     <row r="20" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="155"/>
-      <c r="B20" s="318" t="s">
+      <c r="B20" s="317" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="310"/>
-      <c r="D20" s="310"/>
-      <c r="E20" s="310"/>
+      <c r="C20" s="318"/>
+      <c r="D20" s="318"/>
+      <c r="E20" s="318"/>
       <c r="F20" s="319"/>
-      <c r="G20" s="311">
+      <c r="G20" s="321">
         <f>SUM(C20:F21)</f>
         <v>0</v>
       </c>
@@ -11681,24 +11603,24 @@
     </row>
     <row r="21" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="155"/>
-      <c r="B21" s="318"/>
-      <c r="C21" s="310"/>
-      <c r="D21" s="310"/>
-      <c r="E21" s="310"/>
+      <c r="B21" s="317"/>
+      <c r="C21" s="318"/>
+      <c r="D21" s="318"/>
+      <c r="E21" s="318"/>
       <c r="F21" s="320"/>
-      <c r="G21" s="312"/>
+      <c r="G21" s="322"/>
       <c r="H21" s="218"/>
     </row>
     <row r="22" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="155"/>
-      <c r="B22" s="318" t="s">
+      <c r="B22" s="317" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="310"/>
-      <c r="D22" s="310"/>
-      <c r="E22" s="310"/>
+      <c r="C22" s="318"/>
+      <c r="D22" s="318"/>
+      <c r="E22" s="318"/>
       <c r="F22" s="319"/>
-      <c r="G22" s="311">
+      <c r="G22" s="321">
         <f>SUM(C22:F23)</f>
         <v>0</v>
       </c>
@@ -11706,12 +11628,12 @@
     </row>
     <row r="23" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="155"/>
-      <c r="B23" s="318"/>
-      <c r="C23" s="310"/>
-      <c r="D23" s="310"/>
-      <c r="E23" s="310"/>
+      <c r="B23" s="317"/>
+      <c r="C23" s="318"/>
+      <c r="D23" s="318"/>
+      <c r="E23" s="318"/>
       <c r="F23" s="320"/>
-      <c r="G23" s="312"/>
+      <c r="G23" s="322"/>
       <c r="H23" s="218"/>
     </row>
     <row r="24" spans="1:39" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11778,14 +11700,14 @@
       <c r="AH25" s="75"/>
     </row>
     <row r="26" spans="1:39" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="314"/>
-      <c r="B26" s="314"/>
-      <c r="C26" s="314"/>
-      <c r="D26" s="314"/>
-      <c r="E26" s="314"/>
-      <c r="F26" s="314"/>
-      <c r="G26" s="314"/>
-      <c r="H26" s="314"/>
+      <c r="A26" s="310"/>
+      <c r="B26" s="310"/>
+      <c r="C26" s="310"/>
+      <c r="D26" s="310"/>
+      <c r="E26" s="310"/>
+      <c r="F26" s="310"/>
+      <c r="G26" s="310"/>
+      <c r="H26" s="310"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -11799,52 +11721,52 @@
     </row>
     <row r="27" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:39" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="271" t="s">
+      <c r="A28" s="257" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="271"/>
-      <c r="C28" s="271"/>
-      <c r="D28" s="271"/>
-      <c r="E28" s="271"/>
-      <c r="F28" s="271"/>
-      <c r="G28" s="271"/>
-      <c r="H28" s="271"/>
+      <c r="B28" s="257"/>
+      <c r="C28" s="257"/>
+      <c r="D28" s="257"/>
+      <c r="E28" s="257"/>
+      <c r="F28" s="257"/>
+      <c r="G28" s="257"/>
+      <c r="H28" s="257"/>
     </row>
     <row r="29" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="270" t="s">
+      <c r="A29" s="255" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="270"/>
-      <c r="C29" s="270"/>
-      <c r="D29" s="270"/>
-      <c r="E29" s="270"/>
-      <c r="F29" s="270"/>
-      <c r="G29" s="270"/>
-      <c r="H29" s="270"/>
+      <c r="B29" s="255"/>
+      <c r="C29" s="255"/>
+      <c r="D29" s="255"/>
+      <c r="E29" s="255"/>
+      <c r="F29" s="255"/>
+      <c r="G29" s="255"/>
+      <c r="H29" s="255"/>
     </row>
     <row r="30" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="324" t="s">
+      <c r="A30" s="326" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="324"/>
-      <c r="C30" s="324"/>
-      <c r="D30" s="324"/>
-      <c r="E30" s="324"/>
-      <c r="F30" s="324"/>
-      <c r="G30" s="324"/>
-      <c r="H30" s="324"/>
+      <c r="B30" s="326"/>
+      <c r="C30" s="326"/>
+      <c r="D30" s="326"/>
+      <c r="E30" s="326"/>
+      <c r="F30" s="326"/>
+      <c r="G30" s="326"/>
+      <c r="H30" s="326"/>
     </row>
     <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="313" t="s">
+      <c r="A31" s="331" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="313"/>
-      <c r="C31" s="313"/>
-      <c r="D31" s="313"/>
-      <c r="E31" s="313"/>
-      <c r="F31" s="313"/>
-      <c r="G31" s="313"/>
-      <c r="H31" s="313"/>
+      <c r="B31" s="331"/>
+      <c r="C31" s="331"/>
+      <c r="D31" s="331"/>
+      <c r="E31" s="331"/>
+      <c r="F31" s="331"/>
+      <c r="G31" s="331"/>
+      <c r="H31" s="331"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="74"/>
@@ -11852,26 +11774,6 @@
   </sheetData>
   <sheetProtection password="C691" sheet="1" selectLockedCells="1"/>
   <mergeCells count="36">
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="G16:G17"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="A14:H14"/>
@@ -11888,6 +11790,26 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -11899,7 +11821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -11921,16 +11843,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -11943,16 +11865,16 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:39" ht="15.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
+      <c r="B2" s="262"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -11965,16 +11887,16 @@
       <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:39" ht="15.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="265" t="s">
+      <c r="A3" s="263" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -12063,13 +11985,13 @@
       <c r="A7" s="237" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="336"/>
-      <c r="C7" s="336"/>
-      <c r="D7" s="336"/>
-      <c r="E7" s="336"/>
-      <c r="F7" s="336"/>
-      <c r="G7" s="336"/>
-      <c r="H7" s="337"/>
+      <c r="B7" s="335"/>
+      <c r="C7" s="335"/>
+      <c r="D7" s="335"/>
+      <c r="E7" s="335"/>
+      <c r="F7" s="335"/>
+      <c r="G7" s="335"/>
+      <c r="H7" s="336"/>
       <c r="I7" s="83"/>
       <c r="J7" s="90"/>
     </row>
@@ -12088,16 +12010,16 @@
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:39" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="321" t="s">
+      <c r="A9" s="323" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="322"/>
-      <c r="C9" s="322"/>
-      <c r="D9" s="322"/>
-      <c r="E9" s="322"/>
-      <c r="F9" s="322"/>
-      <c r="G9" s="322"/>
-      <c r="H9" s="323"/>
+      <c r="B9" s="324"/>
+      <c r="C9" s="324"/>
+      <c r="D9" s="324"/>
+      <c r="E9" s="324"/>
+      <c r="F9" s="324"/>
+      <c r="G9" s="324"/>
+      <c r="H9" s="325"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -12130,16 +12052,16 @@
       <c r="H11" s="137"/>
     </row>
     <row r="12" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="335" t="s">
+      <c r="A12" s="337" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="335"/>
-      <c r="C12" s="335"/>
-      <c r="D12" s="335"/>
-      <c r="E12" s="335"/>
-      <c r="F12" s="335"/>
-      <c r="G12" s="335"/>
-      <c r="H12" s="335"/>
+      <c r="B12" s="337"/>
+      <c r="C12" s="337"/>
+      <c r="D12" s="337"/>
+      <c r="E12" s="337"/>
+      <c r="F12" s="337"/>
+      <c r="G12" s="337"/>
+      <c r="H12" s="337"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
@@ -12172,16 +12094,16 @@
       <c r="AM13" s="3"/>
     </row>
     <row r="14" spans="1:39" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="269" t="s">
+      <c r="A14" s="267" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="269"/>
-      <c r="C14" s="269"/>
-      <c r="D14" s="269"/>
-      <c r="E14" s="269"/>
-      <c r="F14" s="269"/>
-      <c r="G14" s="269"/>
-      <c r="H14" s="269"/>
+      <c r="B14" s="267"/>
+      <c r="C14" s="267"/>
+      <c r="D14" s="267"/>
+      <c r="E14" s="267"/>
+      <c r="F14" s="267"/>
+      <c r="G14" s="267"/>
+      <c r="H14" s="267"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="155"/>
@@ -12273,14 +12195,14 @@
       <c r="H20" s="159"/>
     </row>
     <row r="21" spans="1:39" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="335"/>
-      <c r="B21" s="335"/>
-      <c r="C21" s="335"/>
-      <c r="D21" s="335"/>
-      <c r="E21" s="335"/>
-      <c r="F21" s="335"/>
-      <c r="G21" s="335"/>
-      <c r="H21" s="335"/>
+      <c r="A21" s="337"/>
+      <c r="B21" s="337"/>
+      <c r="C21" s="337"/>
+      <c r="D21" s="337"/>
+      <c r="E21" s="337"/>
+      <c r="F21" s="337"/>
+      <c r="G21" s="337"/>
+      <c r="H21" s="337"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
@@ -12293,52 +12215,52 @@
       <c r="AM21" s="3"/>
     </row>
     <row r="23" spans="1:39" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="271" t="s">
+      <c r="A23" s="257" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="271"/>
-      <c r="C23" s="271"/>
-      <c r="D23" s="271"/>
-      <c r="E23" s="271"/>
-      <c r="F23" s="271"/>
-      <c r="G23" s="271"/>
-      <c r="H23" s="271"/>
+      <c r="B23" s="257"/>
+      <c r="C23" s="257"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="257"/>
+      <c r="F23" s="257"/>
+      <c r="G23" s="257"/>
+      <c r="H23" s="257"/>
     </row>
     <row r="24" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="270" t="s">
+      <c r="A24" s="255" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="270"/>
-      <c r="C24" s="270"/>
-      <c r="D24" s="270"/>
-      <c r="E24" s="270"/>
-      <c r="F24" s="270"/>
-      <c r="G24" s="270"/>
-      <c r="H24" s="270"/>
+      <c r="B24" s="255"/>
+      <c r="C24" s="255"/>
+      <c r="D24" s="255"/>
+      <c r="E24" s="255"/>
+      <c r="F24" s="255"/>
+      <c r="G24" s="255"/>
+      <c r="H24" s="255"/>
     </row>
     <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="324" t="s">
+      <c r="A25" s="326" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="324"/>
-      <c r="C25" s="324"/>
-      <c r="D25" s="324"/>
-      <c r="E25" s="324"/>
-      <c r="F25" s="324"/>
-      <c r="G25" s="324"/>
-      <c r="H25" s="324"/>
+      <c r="B25" s="326"/>
+      <c r="C25" s="326"/>
+      <c r="D25" s="326"/>
+      <c r="E25" s="326"/>
+      <c r="F25" s="326"/>
+      <c r="G25" s="326"/>
+      <c r="H25" s="326"/>
     </row>
     <row r="26" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="313" t="s">
+      <c r="A26" s="331" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="313"/>
-      <c r="C26" s="313"/>
-      <c r="D26" s="313"/>
-      <c r="E26" s="313"/>
-      <c r="F26" s="313"/>
-      <c r="G26" s="313"/>
-      <c r="H26" s="313"/>
+      <c r="B26" s="331"/>
+      <c r="C26" s="331"/>
+      <c r="D26" s="331"/>
+      <c r="E26" s="331"/>
+      <c r="F26" s="331"/>
+      <c r="G26" s="331"/>
+      <c r="H26" s="331"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="74"/>
@@ -12346,6 +12268,13 @@
   </sheetData>
   <sheetProtection password="C691" sheet="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A1:H1"/>
@@ -12354,13 +12283,6 @@
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.27559055118110237" footer="0.51181102362204722"/>
